--- a/Jogos_do_Dia/2024-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -184,12 +184,12 @@
     <t>Austria 2. Liga</t>
   </si>
   <si>
+    <t>Switzerland Challenge League</t>
+  </si>
+  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
-    <t>Switzerland Challenge League</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Belgium Pro League</t>
   </si>
   <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
     <t>08:00:00</t>
   </si>
   <si>
@@ -313,93 +313,93 @@
     <t>Accrington Stanley</t>
   </si>
   <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
+    <t>Swindon Town</t>
   </si>
   <si>
     <t>Salford City</t>
   </si>
   <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Hull City</t>
   </si>
   <si>
     <t>Norwich City</t>
   </si>
   <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Cardiff City</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
+    <t>Radnik Surdulica</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
   </si>
   <si>
     <t>Peterborough United</t>
   </si>
   <si>
-    <t>Hull City</t>
-  </si>
-  <si>
-    <t>Radnik Surdulica</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
     <t>Queens Park Rangers</t>
   </si>
   <si>
@@ -415,10 +415,13 @@
     <t>Voluntari</t>
   </si>
   <si>
+    <t>Maribor</t>
+  </si>
+  <si>
     <t>Ružomberok</t>
   </si>
   <si>
-    <t>Maribor</t>
+    <t>Bačka Topola</t>
   </si>
   <si>
     <t>Slaven Koprivnica</t>
@@ -430,66 +433,63 @@
     <t>IMT Novi Beograd</t>
   </si>
   <si>
-    <t>Bačka Topola</t>
+    <t>Leoben</t>
   </si>
   <si>
     <t>St. Pölten</t>
   </si>
   <si>
-    <t>Leoben</t>
-  </si>
-  <si>
     <t>Blackburn Rovers</t>
   </si>
   <si>
     <t>Benfica</t>
   </si>
   <si>
+    <t>Neuchâtel Xamax</t>
+  </si>
+  <si>
+    <t>Stade Nyonnais</t>
+  </si>
+  <si>
     <t>Austria Wien</t>
   </si>
   <si>
     <t>Sepsi</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
-  </si>
-  <si>
-    <t>Neuchâtel Xamax</t>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
   </si>
   <si>
     <t>VVV</t>
   </si>
   <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
     <t>Emmen</t>
   </si>
   <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>Telstar</t>
+    <t>Domžale</t>
   </si>
   <si>
     <t>Bellinzona</t>
   </si>
   <si>
-    <t>Domžale</t>
-  </si>
-  <si>
     <t>Burgos CF</t>
   </si>
   <si>
@@ -499,15 +499,15 @@
     <t>KAA Gent</t>
   </si>
   <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
     <t>Lille</t>
   </si>
   <si>
     <t>Watford</t>
   </si>
   <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
     <t>Estrela Amadora</t>
   </si>
   <si>
@@ -556,93 +556,93 @@
     <t>Morecambe</t>
   </si>
   <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Cheltenham Town</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
     <t>Grimsby Town</t>
   </si>
   <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Stockport County</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Walsall</t>
+    <t>Notts County</t>
   </si>
   <si>
     <t>Sutton United</t>
   </si>
   <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Cheltenham Town</t>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
   </si>
   <si>
     <t>Plymouth Argyle</t>
   </si>
   <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Oxford United</t>
-  </si>
-  <si>
-    <t>Burton Albion</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Bolton Wanderers</t>
+    <t>Vojvodina</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
   </si>
   <si>
     <t>Carlisle United</t>
   </si>
   <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
-    <t>Vojvodina</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Swansea City</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
     <t>Birmingham City</t>
   </si>
   <si>
@@ -658,10 +658,13 @@
     <t>Hermannstadt</t>
   </si>
   <si>
+    <t>Radomlje</t>
+  </si>
+  <si>
     <t>DAC</t>
   </si>
   <si>
-    <t>Radomlje</t>
+    <t>Voždovac</t>
   </si>
   <si>
     <t>Osijek</t>
@@ -673,66 +676,63 @@
     <t>Železničar Pančevo</t>
   </si>
   <si>
-    <t>Voždovac</t>
+    <t>Kapfenberger SV</t>
   </si>
   <si>
     <t>Amstetten</t>
   </si>
   <si>
-    <t>Kapfenberger SV</t>
-  </si>
-  <si>
     <t>Ipswich Town</t>
   </si>
   <si>
     <t>GD Chaves</t>
   </si>
   <si>
+    <t>FC Schaffhausen</t>
+  </si>
+  <si>
+    <t>Sion</t>
+  </si>
+  <si>
     <t>Blau-Weiß Linz</t>
   </si>
   <si>
     <t>CFR Cluj</t>
   </si>
   <si>
-    <t>Sion</t>
-  </si>
-  <si>
-    <t>FC Schaffhausen</t>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>MVV</t>
   </si>
   <si>
     <t>Oss</t>
   </si>
   <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>MVV</t>
-  </si>
-  <si>
     <t>Ajax II</t>
   </si>
   <si>
-    <t>AZ II</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
+    <t>Mura</t>
   </si>
   <si>
     <t>Aarau</t>
   </si>
   <si>
-    <t>Mura</t>
-  </si>
-  <si>
     <t>RCD Espanyol</t>
   </si>
   <si>
@@ -742,13 +742,13 @@
     <t>Standard Liège</t>
   </si>
   <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
     <t>Leeds United</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
   </si>
   <si>
     <t>Sporting CP</t>
@@ -1279,13 +1279,13 @@
         <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="K2">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="L2">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="M2">
         <v>1.47</v>
@@ -1306,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="T2">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U2">
         <v>1.83</v>
@@ -1410,13 +1410,13 @@
         <v>4.5</v>
       </c>
       <c r="J3">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="M3">
         <v>1.53</v>
@@ -1437,10 +1437,10 @@
         <v>2.6</v>
       </c>
       <c r="S3">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="T3">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="U3">
         <v>2.2</v>
@@ -1541,13 +1541,13 @@
         <v>2.3</v>
       </c>
       <c r="J4">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>3.47</v>
       </c>
       <c r="L4">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1568,10 +1568,10 @@
         <v>3.6</v>
       </c>
       <c r="S4">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U4">
         <v>1.83</v>
@@ -1663,61 +1663,61 @@
         <v>168</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J5">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.03</v>
       </c>
       <c r="L5">
-        <v>5.75</v>
+        <v>4.65</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N5">
         <v>3.75</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S5">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Z5">
         <v>2.07</v>
@@ -1735,43 +1735,43 @@
         <v>2.96</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1803,10 +1803,10 @@
         <v>2.9</v>
       </c>
       <c r="J6">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.33</v>
       </c>
       <c r="L6">
         <v>2.15</v>
@@ -1830,10 +1830,10 @@
         <v>3.1</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="T6">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="U6">
         <v>1.73</v>
@@ -1934,19 +1934,19 @@
         <v>3.75</v>
       </c>
       <c r="J7">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O7">
         <v>1.04</v>
@@ -1961,10 +1961,10 @@
         <v>3.2</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T7">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="U7">
         <v>1.75</v>
@@ -2065,52 +2065,52 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="K8">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="L8">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S8">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="T8">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Z8">
         <v>1.15</v>
@@ -2196,13 +2196,13 @@
         <v>5.3</v>
       </c>
       <c r="J9">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="K9">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M9">
         <v>1.36</v>
@@ -2259,43 +2259,43 @@
         <v>2.93</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2327,13 +2327,13 @@
         <v>3.2</v>
       </c>
       <c r="J10">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L10">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="M10">
         <v>1.57</v>
@@ -2354,10 +2354,10 @@
         <v>2.55</v>
       </c>
       <c r="S10">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="T10">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U10">
         <v>2.1</v>
@@ -2458,13 +2458,13 @@
         <v>5.5</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K11">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>1.37</v>
@@ -2485,10 +2485,10 @@
         <v>3.4</v>
       </c>
       <c r="S11">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T11">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -2589,13 +2589,13 @@
         <v>2.88</v>
       </c>
       <c r="J12">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K12">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M12">
         <v>1.41</v>
@@ -2616,10 +2616,10 @@
         <v>3.5</v>
       </c>
       <c r="S12">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="T12">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="U12">
         <v>1.72</v>
@@ -2652,43 +2652,43 @@
         <v>2.99</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2723,10 +2723,10 @@
         <v>1.82</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L13">
-        <v>4.37</v>
+        <v>3.66</v>
       </c>
       <c r="M13">
         <v>1.5</v>
@@ -2747,10 +2747,10 @@
         <v>2.65</v>
       </c>
       <c r="S13">
-        <v>2.23</v>
+        <v>2.34</v>
       </c>
       <c r="T13">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="U13">
         <v>2.1</v>
@@ -2947,10 +2947,10 @@
         <v>1.39</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2982,13 +2982,13 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.62</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>5.22</v>
       </c>
       <c r="M15">
         <v>1.36</v>
@@ -3009,10 +3009,10 @@
         <v>3.55</v>
       </c>
       <c r="S15">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="T15">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U15">
         <v>1.91</v>
@@ -3113,13 +3113,13 @@
         <v>3.6</v>
       </c>
       <c r="J16">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="L16">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="M16">
         <v>1.33</v>
@@ -3140,10 +3140,10 @@
         <v>3.95</v>
       </c>
       <c r="S16">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="U16">
         <v>1.57</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>45380</v>
@@ -3235,115 +3235,115 @@
         <v>180</v>
       </c>
       <c r="G17">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H17">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J17">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="M17">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P17">
-        <v>8.5</v>
+        <v>6.95</v>
       </c>
       <c r="Q17">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="S17">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="T17">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="U17">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W17">
         <v>1.25</v>
       </c>
       <c r="X17">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y17">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Z17">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AA17">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="AB17">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AC17">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AD17">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AE17">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AF17">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG17">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="AH17">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AI17">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AJ17">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AK17">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AL17">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AM17">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="AN17">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="AO17">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="AQ17">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3375,13 +3375,13 @@
         <v>4</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>3.06</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="M18">
         <v>1.4</v>
@@ -3402,10 +3402,10 @@
         <v>3.45</v>
       </c>
       <c r="S18">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T18">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U18">
         <v>1.73</v>
@@ -3506,13 +3506,13 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K19">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="M19">
         <v>1.33</v>
@@ -3533,10 +3533,10 @@
         <v>3.74</v>
       </c>
       <c r="S19">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T19">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="U19">
         <v>1.67</v>
@@ -3637,13 +3637,13 @@
         <v>3.6</v>
       </c>
       <c r="J20">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M20">
         <v>1.33</v>
@@ -3664,10 +3664,10 @@
         <v>3.85</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T20">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U20">
         <v>1.62</v>
@@ -3768,13 +3768,13 @@
         <v>2.25</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4.63</v>
       </c>
       <c r="K21">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="L21">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="M21">
         <v>1.36</v>
@@ -3795,10 +3795,10 @@
         <v>3.65</v>
       </c>
       <c r="S21">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U21">
         <v>1.83</v>
@@ -3890,115 +3890,115 @@
         <v>185</v>
       </c>
       <c r="G22">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="H22">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I22">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="J22">
-        <v>1.51</v>
+        <v>2.49</v>
       </c>
       <c r="K22">
-        <v>4.15</v>
+        <v>3.14</v>
       </c>
       <c r="L22">
-        <v>5.1</v>
+        <v>2.49</v>
       </c>
       <c r="M22">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N22">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>1.01</v>
       </c>
       <c r="P22">
-        <v>13.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q22">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="R22">
-        <v>3.92</v>
+        <v>3.34</v>
       </c>
       <c r="S22">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W22">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="X22">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="Y22">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="Z22">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AA22">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AC22">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="AD22">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="AE22">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="AF22">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG22">
-        <v>3.49</v>
+        <v>2.2</v>
       </c>
       <c r="AH22">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AI22">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ22">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AK22">
-        <v>2.48</v>
+        <v>3.6</v>
       </c>
       <c r="AL22">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="AM22">
+        <v>2.6</v>
+      </c>
+      <c r="AN22">
+        <v>1.72</v>
+      </c>
+      <c r="AO22">
         <v>1.98</v>
       </c>
-      <c r="AN22">
-        <v>2.3</v>
-      </c>
-      <c r="AO22">
-        <v>1.53</v>
-      </c>
       <c r="AP22">
-        <v>3.05</v>
+        <v>2.15</v>
       </c>
       <c r="AQ22">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4030,13 +4030,13 @@
         <v>4</v>
       </c>
       <c r="J23">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.28</v>
       </c>
       <c r="M23">
         <v>1.33</v>
@@ -4057,10 +4057,10 @@
         <v>3.9</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T23">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U23">
         <v>1.62</v>
@@ -4152,120 +4152,120 @@
         <v>187</v>
       </c>
       <c r="G24">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="H24">
         <v>2.3</v>
       </c>
       <c r="I24">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="J24">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="M24">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N24">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O24">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P24">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="Q24">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="R24">
         <v>4.2</v>
       </c>
       <c r="S24">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T24">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V24">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X24">
         <v>1.22</v>
       </c>
       <c r="Y24">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="Z24">
-        <v>1.1</v>
+        <v>2.21</v>
       </c>
       <c r="AA24">
-        <v>0.65</v>
+        <v>1.8</v>
       </c>
       <c r="AB24">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="AC24">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AD24">
-        <v>2.77</v>
+        <v>3.49</v>
       </c>
       <c r="AE24">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AF24">
         <v>8</v>
       </c>
       <c r="AG24">
-        <v>2.39</v>
+        <v>2.1</v>
       </c>
       <c r="AH24">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI24">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AJ24">
+        <v>1.39</v>
+      </c>
+      <c r="AK24">
+        <v>2.77</v>
+      </c>
+      <c r="AL24">
+        <v>1.73</v>
+      </c>
+      <c r="AM24">
+        <v>1.99</v>
+      </c>
+      <c r="AN24">
+        <v>2.2</v>
+      </c>
+      <c r="AO24">
+        <v>1.6</v>
+      </c>
+      <c r="AP24">
+        <v>2.95</v>
+      </c>
+      <c r="AQ24">
         <v>1.35</v>
-      </c>
-      <c r="AK24">
-        <v>2.95</v>
-      </c>
-      <c r="AL24">
-        <v>1.61</v>
-      </c>
-      <c r="AM24">
-        <v>2.17</v>
-      </c>
-      <c r="AN24">
-        <v>2.07</v>
-      </c>
-      <c r="AO24">
-        <v>1.67</v>
-      </c>
-      <c r="AP24">
-        <v>2.7</v>
-      </c>
-      <c r="AQ24">
-        <v>1.41</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>45380</v>
@@ -4283,120 +4283,120 @@
         <v>188</v>
       </c>
       <c r="G25">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="H25">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J25">
-        <v>2.4</v>
+        <v>1.46</v>
       </c>
       <c r="K25">
+        <v>3.93</v>
+      </c>
+      <c r="L25">
+        <v>5.4</v>
+      </c>
+      <c r="M25">
+        <v>1.33</v>
+      </c>
+      <c r="N25">
         <v>3.25</v>
-      </c>
-      <c r="L25">
-        <v>2.8</v>
-      </c>
-      <c r="M25">
-        <v>1.22</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
       </c>
       <c r="O25">
         <v>1.01</v>
       </c>
       <c r="P25">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Q25">
+        <v>1.19</v>
+      </c>
+      <c r="R25">
+        <v>3.92</v>
+      </c>
+      <c r="S25">
+        <v>1.67</v>
+      </c>
+      <c r="T25">
+        <v>2.07</v>
+      </c>
+      <c r="U25">
+        <v>1.8</v>
+      </c>
+      <c r="V25">
+        <v>1.95</v>
+      </c>
+      <c r="W25">
+        <v>1.12</v>
+      </c>
+      <c r="X25">
+        <v>1.17</v>
+      </c>
+      <c r="Y25">
+        <v>2.55</v>
+      </c>
+      <c r="Z25">
+        <v>1.6</v>
+      </c>
+      <c r="AA25">
+        <v>0.68</v>
+      </c>
+      <c r="AB25">
+        <v>1.47</v>
+      </c>
+      <c r="AC25">
         <v>1.08</v>
       </c>
-      <c r="R25">
-        <v>5.9</v>
-      </c>
-      <c r="S25">
+      <c r="AD25">
+        <v>2.55</v>
+      </c>
+      <c r="AE25">
         <v>1.41</v>
       </c>
-      <c r="T25">
-        <v>2.37</v>
-      </c>
-      <c r="U25">
-        <v>1.33</v>
-      </c>
-      <c r="V25">
-        <v>3.25</v>
-      </c>
-      <c r="W25">
-        <v>1.5</v>
-      </c>
-      <c r="X25">
-        <v>1.2</v>
-      </c>
-      <c r="Y25">
-        <v>1.6</v>
-      </c>
-      <c r="Z25">
-        <v>1.55</v>
-      </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AB25">
-        <v>1.46</v>
-      </c>
-      <c r="AC25">
-        <v>1.41</v>
-      </c>
-      <c r="AD25">
-        <v>2.87</v>
-      </c>
-      <c r="AE25">
-        <v>1.91</v>
-      </c>
       <c r="AF25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25">
-        <v>2.1</v>
+        <v>3.49</v>
       </c>
       <c r="AH25">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AI25">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AJ25">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AK25">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="AL25">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="AM25">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="AN25">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AO25">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AP25">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="AQ25">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>45380</v>
@@ -4414,112 +4414,112 @@
         <v>189</v>
       </c>
       <c r="G26">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I26">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J26">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="K26">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="L26">
-        <v>2.9</v>
+        <v>3.79</v>
       </c>
       <c r="M26">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N26">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O26">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P26">
-        <v>12.1</v>
+        <v>8</v>
       </c>
       <c r="Q26">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="R26">
-        <v>4.2</v>
+        <v>2.93</v>
       </c>
       <c r="S26">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="X26">
+        <v>1.25</v>
+      </c>
+      <c r="Y26">
+        <v>1.87</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>1.1</v>
+      </c>
+      <c r="AB26">
+        <v>1.45</v>
+      </c>
+      <c r="AC26">
+        <v>1.26</v>
+      </c>
+      <c r="AD26">
+        <v>2.71</v>
+      </c>
+      <c r="AE26">
+        <v>1.64</v>
+      </c>
+      <c r="AF26">
+        <v>8.5</v>
+      </c>
+      <c r="AG26">
+        <v>2.66</v>
+      </c>
+      <c r="AH26">
         <v>1.22</v>
       </c>
-      <c r="Y26">
-        <v>1.62</v>
-      </c>
-      <c r="Z26">
-        <v>2.21</v>
-      </c>
-      <c r="AA26">
-        <v>1.8</v>
-      </c>
-      <c r="AB26">
-        <v>1.86</v>
-      </c>
-      <c r="AC26">
-        <v>1.63</v>
-      </c>
-      <c r="AD26">
-        <v>3.49</v>
-      </c>
-      <c r="AE26">
-        <v>1.95</v>
-      </c>
-      <c r="AF26">
-        <v>8</v>
-      </c>
-      <c r="AG26">
-        <v>2.1</v>
-      </c>
-      <c r="AH26">
-        <v>1.2</v>
-      </c>
       <c r="AI26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ26">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AK26">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AL26">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AM26">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="AN26">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AO26">
         <v>1.6</v>
       </c>
       <c r="AP26">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AQ26">
         <v>1.35</v>
@@ -4545,120 +4545,120 @@
         <v>190</v>
       </c>
       <c r="G27">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="H27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I27">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="L27">
-        <v>2.45</v>
+        <v>3.23</v>
       </c>
       <c r="M27">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="O27">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P27">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Q27">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R27">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="S27">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T27">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U27">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="X27">
         <v>1.25</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="Z27">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="AB27">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AC27">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="AD27">
-        <v>2.69</v>
+        <v>2.38</v>
       </c>
       <c r="AE27">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="AF27">
         <v>7.5</v>
       </c>
       <c r="AG27">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ27">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AK27">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="AL27">
+        <v>1.6</v>
+      </c>
+      <c r="AM27">
+        <v>2.17</v>
+      </c>
+      <c r="AN27">
+        <v>1.98</v>
+      </c>
+      <c r="AO27">
+        <v>1.72</v>
+      </c>
+      <c r="AP27">
+        <v>2.6</v>
+      </c>
+      <c r="AQ27">
         <v>1.43</v>
-      </c>
-      <c r="AM27">
-        <v>2.6</v>
-      </c>
-      <c r="AN27">
-        <v>1.72</v>
-      </c>
-      <c r="AO27">
-        <v>1.98</v>
-      </c>
-      <c r="AP27">
-        <v>2.15</v>
-      </c>
-      <c r="AQ27">
-        <v>1.61</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
         <v>45380</v>
@@ -4676,120 +4676,120 @@
         <v>191</v>
       </c>
       <c r="G28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H28">
         <v>2.1</v>
       </c>
       <c r="I28">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L28">
-        <v>3.55</v>
+        <v>3.21</v>
       </c>
       <c r="M28">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O28">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q28">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R28">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W28">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X28">
         <v>1.25</v>
       </c>
       <c r="Y28">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AA28">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="AB28">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AC28">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AD28">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="AE28">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AF28">
         <v>8.5</v>
       </c>
       <c r="AG28">
-        <v>2.66</v>
+        <v>3.01</v>
       </c>
       <c r="AH28">
         <v>1.22</v>
       </c>
       <c r="AI28">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AJ28">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AK28">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="AL28">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AM28">
-        <v>1.98</v>
+        <v>2.27</v>
       </c>
       <c r="AN28">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="AO28">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AP28">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AQ28">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>45380</v>
@@ -4807,22 +4807,22 @@
         <v>192</v>
       </c>
       <c r="G29">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H29">
         <v>2.1</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J29">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="L29">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="M29">
         <v>1.44</v>
@@ -4831,96 +4831,96 @@
         <v>2.63</v>
       </c>
       <c r="O29">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P29">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="Q29">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="R29">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="U29">
+        <v>1.91</v>
+      </c>
+      <c r="V29">
         <v>1.8</v>
       </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
         <v>1.25</v>
       </c>
       <c r="Y29">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Z29">
-        <v>0.85</v>
+        <v>1.95</v>
       </c>
       <c r="AA29">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="AB29">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AC29">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
       <c r="AD29">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="AE29">
+        <v>1.69</v>
+      </c>
+      <c r="AF29">
+        <v>8.5</v>
+      </c>
+      <c r="AG29">
+        <v>2.62</v>
+      </c>
+      <c r="AH29">
+        <v>1.25</v>
+      </c>
+      <c r="AI29">
+        <v>3.6</v>
+      </c>
+      <c r="AJ29">
+        <v>1.38</v>
+      </c>
+      <c r="AK29">
+        <v>2.8</v>
+      </c>
+      <c r="AL29">
+        <v>1.67</v>
+      </c>
+      <c r="AM29">
+        <v>2.07</v>
+      </c>
+      <c r="AN29">
+        <v>2.12</v>
+      </c>
+      <c r="AO29">
         <v>1.64</v>
       </c>
-      <c r="AF29">
-        <v>7.5</v>
-      </c>
-      <c r="AG29">
-        <v>2.74</v>
-      </c>
-      <c r="AH29">
-        <v>1.18</v>
-      </c>
-      <c r="AI29">
-        <v>4.25</v>
-      </c>
-      <c r="AJ29">
-        <v>1.34</v>
-      </c>
-      <c r="AK29">
-        <v>2.95</v>
-      </c>
-      <c r="AL29">
-        <v>1.6</v>
-      </c>
-      <c r="AM29">
-        <v>2.17</v>
-      </c>
-      <c r="AN29">
-        <v>1.98</v>
-      </c>
-      <c r="AO29">
-        <v>1.72</v>
-      </c>
       <c r="AP29">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="AQ29">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2">
         <v>45380</v>
@@ -4929,7 +4929,7 @@
         <v>70</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>112</v>
@@ -4938,115 +4938,115 @@
         <v>193</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="H30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>1.47</v>
+        <v>2.19</v>
       </c>
       <c r="K30">
-        <v>4.55</v>
+        <v>3.52</v>
       </c>
       <c r="L30">
-        <v>5.6</v>
+        <v>2.45</v>
       </c>
       <c r="M30">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P30">
         <v>17</v>
       </c>
       <c r="Q30">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="R30">
-        <v>4.75</v>
+        <v>5.9</v>
       </c>
       <c r="S30">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="T30">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="U30">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="W30">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y30">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="Z30">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="AA30">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AC30">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AD30">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="AE30">
-        <v>1.26</v>
+        <v>1.91</v>
       </c>
       <c r="AF30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG30">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH30">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AI30">
-        <v>4.9</v>
+        <v>4.33</v>
       </c>
       <c r="AJ30">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AK30">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="AL30">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AM30">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="AN30">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AO30">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="AP30">
-        <v>2.35</v>
+        <v>2.77</v>
       </c>
       <c r="AQ30">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -5069,85 +5069,85 @@
         <v>194</v>
       </c>
       <c r="G31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H31">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J31">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="M31">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N31">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O31">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P31">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q31">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="R31">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="S31">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="T31">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="U31">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V31">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W31">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
+        <v>1.22</v>
+      </c>
+      <c r="Y31">
+        <v>1.85</v>
+      </c>
+      <c r="Z31">
+        <v>1.1</v>
+      </c>
+      <c r="AA31">
+        <v>0.65</v>
+      </c>
+      <c r="AB31">
+        <v>1.52</v>
+      </c>
+      <c r="AC31">
         <v>1.25</v>
-      </c>
-      <c r="Y31">
-        <v>1.73</v>
-      </c>
-      <c r="Z31">
-        <v>1.55</v>
-      </c>
-      <c r="AA31">
-        <v>1.42</v>
-      </c>
-      <c r="AB31">
-        <v>1.47</v>
-      </c>
-      <c r="AC31">
-        <v>1.3</v>
       </c>
       <c r="AD31">
         <v>2.77</v>
       </c>
       <c r="AE31">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AF31">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG31">
-        <v>3.01</v>
+        <v>2.39</v>
       </c>
       <c r="AH31">
         <v>1.22</v>
@@ -5156,28 +5156,28 @@
         <v>3.8</v>
       </c>
       <c r="AJ31">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AK31">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AL31">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AM31">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AN31">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="AO31">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AP31">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5209,13 +5209,13 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="K32">
-        <v>3.45</v>
+        <v>3.11</v>
       </c>
       <c r="L32">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="M32">
         <v>1.36</v>
@@ -5236,10 +5236,10 @@
         <v>3.6</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T32">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="U32">
         <v>1.73</v>
@@ -5340,13 +5340,13 @@
         <v>3.4</v>
       </c>
       <c r="J33">
-        <v>2.37</v>
+        <v>2.51</v>
       </c>
       <c r="K33">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="L33">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="M33">
         <v>1.44</v>
@@ -5367,10 +5367,10 @@
         <v>3.04</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U33">
         <v>1.8</v>
@@ -5471,13 +5471,13 @@
         <v>4.75</v>
       </c>
       <c r="J34">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="K34">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L34">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="M34">
         <v>1.36</v>
@@ -5498,10 +5498,10 @@
         <v>3.5</v>
       </c>
       <c r="S34">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U34">
         <v>1.8</v>
@@ -5602,13 +5602,13 @@
         <v>2.75</v>
       </c>
       <c r="J35">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="K35">
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
       <c r="L35">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="M35">
         <v>1.44</v>
@@ -5629,10 +5629,10 @@
         <v>2.98</v>
       </c>
       <c r="S35">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U35">
         <v>1.91</v>
@@ -5733,13 +5733,13 @@
         <v>4.33</v>
       </c>
       <c r="J36">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="K36">
-        <v>3.35</v>
+        <v>3.12</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="M36">
         <v>1.44</v>
@@ -5760,10 +5760,10 @@
         <v>2.93</v>
       </c>
       <c r="S36">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="T36">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="U36">
         <v>1.91</v>
@@ -5864,13 +5864,13 @@
         <v>2.75</v>
       </c>
       <c r="J37">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
       <c r="K37">
-        <v>3.35</v>
+        <v>3.14</v>
       </c>
       <c r="L37">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="M37">
         <v>1.4</v>
@@ -5891,10 +5891,10 @@
         <v>3.18</v>
       </c>
       <c r="S37">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U37">
         <v>1.8</v>
@@ -5936,10 +5936,10 @@
         <v>1.64</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ37">
         <v>1.28</v>
@@ -5995,13 +5995,13 @@
         <v>3.6</v>
       </c>
       <c r="J38">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="K38">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="L38">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="M38">
         <v>1.5</v>
@@ -6022,10 +6022,10 @@
         <v>2.9</v>
       </c>
       <c r="S38">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="T38">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U38">
         <v>1.91</v>
@@ -6126,13 +6126,13 @@
         <v>3.25</v>
       </c>
       <c r="J39">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="L39">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="M39">
         <v>1.44</v>
@@ -6153,10 +6153,10 @@
         <v>2.89</v>
       </c>
       <c r="S39">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T39">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="U39">
         <v>1.95</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>45380</v>
@@ -6239,7 +6239,7 @@
         <v>70</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>122</v>
@@ -6248,115 +6248,115 @@
         <v>203</v>
       </c>
       <c r="G40">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="H40">
+        <v>2.2</v>
+      </c>
+      <c r="I40">
+        <v>4.33</v>
+      </c>
+      <c r="J40">
+        <v>1.9</v>
+      </c>
+      <c r="K40">
+        <v>3.25</v>
+      </c>
+      <c r="L40">
+        <v>3.75</v>
+      </c>
+      <c r="M40">
+        <v>1.4</v>
+      </c>
+      <c r="N40">
         <v>2.75</v>
       </c>
-      <c r="I40">
-        <v>7</v>
-      </c>
-      <c r="J40">
-        <v>1.29</v>
-      </c>
-      <c r="K40">
-        <v>5.2</v>
-      </c>
-      <c r="L40">
-        <v>7.3</v>
-      </c>
-      <c r="M40">
-        <v>1.25</v>
-      </c>
-      <c r="N40">
-        <v>3.75</v>
-      </c>
       <c r="O40">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P40">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="Q40">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="R40">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="S40">
-        <v>1.58</v>
+        <v>2.01</v>
       </c>
       <c r="T40">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="U40">
         <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W40">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="X40">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="Y40">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="AA40">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AC40">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AD40">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="AE40">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="AF40">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG40">
-        <v>4.64</v>
+        <v>2.53</v>
       </c>
       <c r="AH40">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AI40">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AJ40">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AK40">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AL40">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AM40">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="AN40">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AP40">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6379,67 +6379,67 @@
         <v>204</v>
       </c>
       <c r="G41">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>1.43</v>
+      </c>
+      <c r="K41">
         <v>4.33</v>
       </c>
-      <c r="J41">
-        <v>1.9</v>
-      </c>
-      <c r="K41">
+      <c r="L41">
+        <v>5.7</v>
+      </c>
+      <c r="M41">
+        <v>1.29</v>
+      </c>
+      <c r="N41">
         <v>3.5</v>
       </c>
-      <c r="L41">
-        <v>3.75</v>
-      </c>
-      <c r="M41">
-        <v>1.4</v>
-      </c>
-      <c r="N41">
-        <v>2.75</v>
-      </c>
       <c r="O41">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P41">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q41">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="R41">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="S41">
+        <v>1.54</v>
+      </c>
+      <c r="T41">
+        <v>2.38</v>
+      </c>
+      <c r="U41">
+        <v>1.73</v>
+      </c>
+      <c r="V41">
         <v>2</v>
       </c>
-      <c r="T41">
-        <v>1.87</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>1.91</v>
-      </c>
       <c r="W41">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="X41">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Y41">
-        <v>1.9</v>
+        <v>2.65</v>
       </c>
       <c r="Z41">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AB41">
         <v>1.56</v>
@@ -6451,43 +6451,43 @@
         <v>2.79</v>
       </c>
       <c r="AE41">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="AF41">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG41">
-        <v>2.53</v>
+        <v>4.5</v>
       </c>
       <c r="AH41">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AI41">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AJ41">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AK41">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AL41">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AM41">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO41">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AP41">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="AQ41">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -6519,13 +6519,13 @@
         <v>2.5</v>
       </c>
       <c r="J42">
-        <v>3.8</v>
+        <v>4.16</v>
       </c>
       <c r="K42">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L42">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M42">
         <v>1.42</v>
@@ -6582,43 +6582,43 @@
         <v>2.82</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -6650,13 +6650,13 @@
         <v>5</v>
       </c>
       <c r="J43">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="K43">
-        <v>4.35</v>
+        <v>3.92</v>
       </c>
       <c r="L43">
-        <v>4.7</v>
+        <v>4.53</v>
       </c>
       <c r="M43">
         <v>1.25</v>
@@ -6677,10 +6677,10 @@
         <v>5</v>
       </c>
       <c r="S43">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="T43">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="U43">
         <v>1.57</v>
@@ -6781,13 +6781,13 @@
         <v>3.5</v>
       </c>
       <c r="J44">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="K44">
-        <v>3.4</v>
+        <v>3.06</v>
       </c>
       <c r="L44">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="M44">
         <v>1.4</v>
@@ -6808,10 +6808,10 @@
         <v>3.4</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T44">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U44">
         <v>1.73</v>
@@ -6903,115 +6903,115 @@
         <v>208</v>
       </c>
       <c r="G45">
+        <v>1.73</v>
+      </c>
+      <c r="H45">
         <v>2.75</v>
       </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
       <c r="I45">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J45">
-        <v>2.05</v>
+        <v>1.27</v>
       </c>
       <c r="K45">
-        <v>3.2</v>
+        <v>4.84</v>
       </c>
       <c r="L45">
-        <v>3.35</v>
+        <v>6.76</v>
       </c>
       <c r="M45">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N45">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O45">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P45">
-        <v>6.95</v>
+        <v>19.5</v>
       </c>
       <c r="Q45">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="R45">
-        <v>2.57</v>
+        <v>5.2</v>
       </c>
       <c r="S45">
-        <v>2.12</v>
+        <v>1.45</v>
       </c>
       <c r="T45">
-        <v>1.73</v>
+        <v>2.56</v>
       </c>
       <c r="U45">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="X45">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="Y45">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="Z45">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AA45">
-        <v>1.5</v>
+        <v>0.47</v>
       </c>
       <c r="AB45">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="AC45">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="AD45">
+        <v>2.71</v>
+      </c>
+      <c r="AE45">
+        <v>1.26</v>
+      </c>
+      <c r="AF45">
+        <v>10</v>
+      </c>
+      <c r="AG45">
+        <v>4.64</v>
+      </c>
+      <c r="AH45">
+        <v>1.2</v>
+      </c>
+      <c r="AI45">
+        <v>3.95</v>
+      </c>
+      <c r="AJ45">
+        <v>1.38</v>
+      </c>
+      <c r="AK45">
+        <v>2.75</v>
+      </c>
+      <c r="AL45">
+        <v>1.66</v>
+      </c>
+      <c r="AM45">
+        <v>2.07</v>
+      </c>
+      <c r="AN45">
+        <v>2.08</v>
+      </c>
+      <c r="AO45">
+        <v>1.65</v>
+      </c>
+      <c r="AP45">
         <v>2.7</v>
       </c>
-      <c r="AE45">
-        <v>1.91</v>
-      </c>
-      <c r="AF45">
-        <v>8</v>
-      </c>
-      <c r="AG45">
-        <v>2.2</v>
-      </c>
-      <c r="AH45">
-        <v>1.27</v>
-      </c>
-      <c r="AI45">
-        <v>3.35</v>
-      </c>
-      <c r="AJ45">
-        <v>1.49</v>
-      </c>
-      <c r="AK45">
-        <v>2.4</v>
-      </c>
-      <c r="AL45">
-        <v>1.92</v>
-      </c>
-      <c r="AM45">
-        <v>1.88</v>
-      </c>
-      <c r="AN45">
-        <v>2.38</v>
-      </c>
-      <c r="AO45">
-        <v>1.5</v>
-      </c>
-      <c r="AP45">
-        <v>3.2</v>
-      </c>
       <c r="AQ45">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -7043,13 +7043,13 @@
         <v>4.33</v>
       </c>
       <c r="J46">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>3.55</v>
+        <v>3.32</v>
       </c>
       <c r="M46">
         <v>1.44</v>
@@ -7070,10 +7070,10 @@
         <v>3</v>
       </c>
       <c r="S46">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="T46">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U46">
         <v>1.91</v>
@@ -7174,13 +7174,13 @@
         <v>6.5</v>
       </c>
       <c r="J47">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="K47">
-        <v>3.95</v>
+        <v>3.88</v>
       </c>
       <c r="L47">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M47">
         <v>1.4</v>
@@ -7201,10 +7201,10 @@
         <v>3.6</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T47">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U47">
         <v>2</v>
@@ -7311,7 +7311,7 @@
         <v>3.6</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M48">
         <v>1.4</v>
@@ -7332,10 +7332,10 @@
         <v>3.3</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T48">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U48">
         <v>1.95</v>
@@ -7368,31 +7368,31 @@
         <v>2.8</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AN48">
         <v>1.9</v>
@@ -7401,10 +7401,10 @@
         <v>1.9</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -7436,13 +7436,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K49">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="L49">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -7463,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="T49">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         <v>3.1</v>
       </c>
       <c r="J50">
-        <v>3.05</v>
+        <v>2.73</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="L50">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M50">
         <v>1.56</v>
@@ -7588,16 +7588,16 @@
         <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R50">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="S50">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="T50">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="U50">
         <v>2.1</v>
@@ -7639,10 +7639,10 @@
         <v>1.75</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AJ50">
         <v>1.88</v>
@@ -7651,27 +7651,27 @@
         <v>1.92</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2">
         <v>45380</v>
@@ -7680,7 +7680,7 @@
         <v>72</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
         <v>133</v>
@@ -7689,120 +7689,120 @@
         <v>214</v>
       </c>
       <c r="G51">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="H51">
+        <v>2.4</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>1.4</v>
+      </c>
+      <c r="K51">
+        <v>4.3</v>
+      </c>
+      <c r="L51">
+        <v>5.8</v>
+      </c>
+      <c r="M51">
+        <v>1.31</v>
+      </c>
+      <c r="N51">
+        <v>3.26</v>
+      </c>
+      <c r="O51">
+        <v>1.02</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+      <c r="Q51">
+        <v>1.2</v>
+      </c>
+      <c r="R51">
+        <v>4.2</v>
+      </c>
+      <c r="S51">
+        <v>1.58</v>
+      </c>
+      <c r="T51">
+        <v>2.24</v>
+      </c>
+      <c r="U51">
+        <v>1.9</v>
+      </c>
+      <c r="V51">
+        <v>1.85</v>
+      </c>
+      <c r="W51">
+        <v>1.05</v>
+      </c>
+      <c r="X51">
+        <v>1.12</v>
+      </c>
+      <c r="Y51">
+        <v>2.9</v>
+      </c>
+      <c r="Z51">
+        <v>2.38</v>
+      </c>
+      <c r="AA51">
+        <v>1.15</v>
+      </c>
+      <c r="AB51">
+        <v>1.78</v>
+      </c>
+      <c r="AC51">
+        <v>1.38</v>
+      </c>
+      <c r="AD51">
+        <v>3.16</v>
+      </c>
+      <c r="AE51">
+        <v>1.27</v>
+      </c>
+      <c r="AF51">
+        <v>10.25</v>
+      </c>
+      <c r="AG51">
+        <v>4.3</v>
+      </c>
+      <c r="AH51">
+        <v>1.29</v>
+      </c>
+      <c r="AI51">
+        <v>3.4</v>
+      </c>
+      <c r="AJ51">
+        <v>1.48</v>
+      </c>
+      <c r="AK51">
+        <v>2.5</v>
+      </c>
+      <c r="AL51">
+        <v>1.73</v>
+      </c>
+      <c r="AM51">
         <v>2</v>
       </c>
-      <c r="I51">
-        <v>3.1</v>
-      </c>
-      <c r="J51">
-        <v>2.85</v>
-      </c>
-      <c r="K51">
-        <v>3.2</v>
-      </c>
-      <c r="L51">
-        <v>2.3</v>
-      </c>
-      <c r="M51">
-        <v>1.51</v>
-      </c>
-      <c r="N51">
-        <v>2.4</v>
-      </c>
-      <c r="O51">
-        <v>1.05</v>
-      </c>
-      <c r="P51">
-        <v>6.95</v>
-      </c>
-      <c r="Q51">
-        <v>1.42</v>
-      </c>
-      <c r="R51">
+      <c r="AN51">
+        <v>2.1</v>
+      </c>
+      <c r="AO51">
+        <v>1.65</v>
+      </c>
+      <c r="AP51">
         <v>2.7</v>
       </c>
-      <c r="S51">
-        <v>2.1</v>
-      </c>
-      <c r="T51">
-        <v>1.67</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
-      <c r="V51">
-        <v>1.8</v>
-      </c>
-      <c r="W51">
-        <v>1.47</v>
-      </c>
-      <c r="X51">
-        <v>1.28</v>
-      </c>
-      <c r="Y51">
-        <v>1.3</v>
-      </c>
-      <c r="Z51">
-        <v>1.92</v>
-      </c>
-      <c r="AA51">
-        <v>1.33</v>
-      </c>
-      <c r="AB51">
-        <v>1.19</v>
-      </c>
-      <c r="AC51">
-        <v>1.18</v>
-      </c>
-      <c r="AD51">
-        <v>2.37</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>2</v>
-      </c>
-      <c r="AO51">
-        <v>1.8</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>45380</v>
@@ -7811,7 +7811,7 @@
         <v>72</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>134</v>
@@ -7820,120 +7820,120 @@
         <v>215</v>
       </c>
       <c r="G52">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>3.1</v>
+      </c>
+      <c r="J52">
+        <v>2.72</v>
+      </c>
+      <c r="K52">
+        <v>3.15</v>
+      </c>
+      <c r="L52">
+        <v>2.29</v>
+      </c>
+      <c r="M52">
+        <v>1.51</v>
+      </c>
+      <c r="N52">
         <v>2.4</v>
       </c>
-      <c r="I52">
-        <v>6</v>
-      </c>
-      <c r="J52">
-        <v>1.39</v>
-      </c>
-      <c r="K52">
-        <v>4.6</v>
-      </c>
-      <c r="L52">
-        <v>6.5</v>
-      </c>
-      <c r="M52">
-        <v>1.31</v>
-      </c>
-      <c r="N52">
-        <v>3.26</v>
-      </c>
       <c r="O52">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P52">
-        <v>10</v>
+        <v>6.95</v>
       </c>
       <c r="Q52">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="R52">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="S52">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="T52">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="X52">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="Y52">
+        <v>1.3</v>
+      </c>
+      <c r="Z52">
+        <v>1.92</v>
+      </c>
+      <c r="AA52">
+        <v>1.33</v>
+      </c>
+      <c r="AB52">
+        <v>1.19</v>
+      </c>
+      <c r="AC52">
+        <v>1.18</v>
+      </c>
+      <c r="AD52">
+        <v>2.37</v>
+      </c>
+      <c r="AE52">
+        <v>2.2</v>
+      </c>
+      <c r="AF52">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG52">
+        <v>1.86</v>
+      </c>
+      <c r="AH52">
+        <v>1.22</v>
+      </c>
+      <c r="AI52">
+        <v>4</v>
+      </c>
+      <c r="AJ52">
+        <v>1.36</v>
+      </c>
+      <c r="AK52">
         <v>2.9</v>
       </c>
-      <c r="Z52">
-        <v>2.38</v>
-      </c>
-      <c r="AA52">
-        <v>1.15</v>
-      </c>
-      <c r="AB52">
-        <v>1.78</v>
-      </c>
-      <c r="AC52">
+      <c r="AL52">
+        <v>1.7</v>
+      </c>
+      <c r="AM52">
+        <v>2.03</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>1.8</v>
+      </c>
+      <c r="AP52">
+        <v>2.8</v>
+      </c>
+      <c r="AQ52">
         <v>1.38</v>
-      </c>
-      <c r="AD52">
-        <v>3.16</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2">
         <v>45380</v>
@@ -7942,7 +7942,7 @@
         <v>73</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
         <v>135</v>
@@ -7951,109 +7951,109 @@
         <v>216</v>
       </c>
       <c r="G53">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="H53">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I53">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="J53">
-        <v>2.53</v>
+        <v>1.37</v>
       </c>
       <c r="K53">
-        <v>3.23</v>
+        <v>4.5</v>
       </c>
       <c r="L53">
-        <v>2.3</v>
+        <v>7.85</v>
       </c>
       <c r="M53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P53">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="Q53">
         <v>1.25</v>
       </c>
       <c r="R53">
-        <v>3.65</v>
+        <v>3.88</v>
       </c>
       <c r="S53">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="T53">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="U53">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="V53">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="W53">
-        <v>1.62</v>
+        <v>1.09</v>
       </c>
       <c r="X53">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Y53">
-        <v>1.36</v>
+        <v>2.85</v>
       </c>
       <c r="Z53">
-        <v>1.15</v>
+        <v>1.85</v>
       </c>
       <c r="AA53">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AB53">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="AC53">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AD53">
-        <v>2.71</v>
+        <v>3.07</v>
       </c>
       <c r="AE53">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="AF53">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AG53">
-        <v>1.91</v>
+        <v>8.75</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM53">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP53">
         <v>0</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B54" s="2">
         <v>45380</v>
@@ -8073,7 +8073,7 @@
         <v>73</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
         <v>136</v>
@@ -8082,120 +8082,120 @@
         <v>217</v>
       </c>
       <c r="G54">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="J54">
-        <v>1.44</v>
+        <v>2.53</v>
       </c>
       <c r="K54">
-        <v>4.2</v>
+        <v>3.23</v>
       </c>
       <c r="L54">
-        <v>7.55</v>
+        <v>2.3</v>
       </c>
       <c r="M54">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="N54">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="O54">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q54">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
-        <v>2.65</v>
+        <v>3.65</v>
       </c>
       <c r="S54">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="T54">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="U54">
-        <v>2.63</v>
+        <v>1.6</v>
       </c>
       <c r="V54">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="W54">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="X54">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y54">
-        <v>2.35</v>
+        <v>1.36</v>
       </c>
       <c r="Z54">
-        <v>2.17</v>
+        <v>1.15</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AB54">
-        <v>2.04</v>
+        <v>1.43</v>
       </c>
       <c r="AC54">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AD54">
-        <v>3.4</v>
+        <v>2.71</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2">
         <v>45380</v>
@@ -8204,7 +8204,7 @@
         <v>73</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
         <v>137</v>
@@ -8213,115 +8213,115 @@
         <v>218</v>
       </c>
       <c r="G55">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="H55">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>1.48</v>
+      </c>
+      <c r="K55">
+        <v>3.28</v>
+      </c>
+      <c r="L55">
+        <v>5.42</v>
+      </c>
+      <c r="M55">
+        <v>1.53</v>
+      </c>
+      <c r="N55">
+        <v>2.38</v>
+      </c>
+      <c r="O55">
+        <v>1.08</v>
+      </c>
+      <c r="P55">
+        <v>6.5</v>
+      </c>
+      <c r="Q55">
+        <v>1.45</v>
+      </c>
+      <c r="R55">
+        <v>2.65</v>
+      </c>
+      <c r="S55">
+        <v>2.47</v>
+      </c>
+      <c r="T55">
+        <v>1.48</v>
+      </c>
+      <c r="U55">
+        <v>2.63</v>
+      </c>
+      <c r="V55">
+        <v>1.44</v>
+      </c>
+      <c r="W55">
+        <v>1.06</v>
+      </c>
+      <c r="X55">
+        <v>1.22</v>
+      </c>
+      <c r="Y55">
+        <v>2.35</v>
+      </c>
+      <c r="Z55">
+        <v>2.17</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>2.04</v>
+      </c>
+      <c r="AC55">
+        <v>1.36</v>
+      </c>
+      <c r="AD55">
+        <v>3.4</v>
+      </c>
+      <c r="AE55">
+        <v>1.35</v>
+      </c>
+      <c r="AF55">
+        <v>9.6</v>
+      </c>
+      <c r="AG55">
+        <v>3.84</v>
+      </c>
+      <c r="AH55">
+        <v>1.38</v>
+      </c>
+      <c r="AI55">
+        <v>2.71</v>
+      </c>
+      <c r="AJ55">
+        <v>1.71</v>
+      </c>
+      <c r="AK55">
+        <v>2.04</v>
+      </c>
+      <c r="AL55">
+        <v>2.22</v>
+      </c>
+      <c r="AM55">
+        <v>1.62</v>
+      </c>
+      <c r="AN55">
+        <v>2.93</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
         <v>3.6</v>
       </c>
-      <c r="J55">
-        <v>2.12</v>
-      </c>
-      <c r="K55">
-        <v>3.25</v>
-      </c>
-      <c r="L55">
-        <v>3.15</v>
-      </c>
-      <c r="M55">
-        <v>1.36</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
-      <c r="O55">
-        <v>1.05</v>
-      </c>
-      <c r="P55">
-        <v>9</v>
-      </c>
-      <c r="Q55">
-        <v>1.29</v>
-      </c>
-      <c r="R55">
-        <v>3.5</v>
-      </c>
-      <c r="S55">
-        <v>1.86</v>
-      </c>
-      <c r="T55">
-        <v>1.9</v>
-      </c>
-      <c r="U55">
-        <v>1.7</v>
-      </c>
-      <c r="V55">
-        <v>2.05</v>
-      </c>
-      <c r="W55">
-        <v>1.28</v>
-      </c>
-      <c r="X55">
+      <c r="AQ55">
         <v>1.25</v>
-      </c>
-      <c r="Y55">
-        <v>1.62</v>
-      </c>
-      <c r="Z55">
-        <v>1.08</v>
-      </c>
-      <c r="AA55">
-        <v>0.62</v>
-      </c>
-      <c r="AB55">
-        <v>1.38</v>
-      </c>
-      <c r="AC55">
-        <v>1.29</v>
-      </c>
-      <c r="AD55">
-        <v>2.67</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -8344,115 +8344,115 @@
         <v>219</v>
       </c>
       <c r="G56">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="H56">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="I56">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="J56">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="L56">
-        <v>8.5</v>
+        <v>3.62</v>
       </c>
       <c r="M56">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N56">
         <v>3</v>
       </c>
       <c r="O56">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P56">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Q56">
+        <v>1.29</v>
+      </c>
+      <c r="R56">
+        <v>3.5</v>
+      </c>
+      <c r="S56">
+        <v>1.89</v>
+      </c>
+      <c r="T56">
+        <v>1.89</v>
+      </c>
+      <c r="U56">
+        <v>1.7</v>
+      </c>
+      <c r="V56">
+        <v>2.05</v>
+      </c>
+      <c r="W56">
+        <v>1.28</v>
+      </c>
+      <c r="X56">
         <v>1.25</v>
       </c>
-      <c r="R56">
-        <v>3.88</v>
-      </c>
-      <c r="S56">
-        <v>1.77</v>
-      </c>
-      <c r="T56">
-        <v>2.03</v>
-      </c>
-      <c r="U56">
-        <v>2.05</v>
-      </c>
-      <c r="V56">
-        <v>1.65</v>
-      </c>
-      <c r="W56">
-        <v>1.09</v>
-      </c>
-      <c r="X56">
-        <v>1.17</v>
-      </c>
       <c r="Y56">
-        <v>2.85</v>
+        <v>1.62</v>
       </c>
       <c r="Z56">
-        <v>1.85</v>
+        <v>1.08</v>
       </c>
       <c r="AA56">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="AB56">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AC56">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AD56">
-        <v>3.07</v>
+        <v>2.67</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ56">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -8478,112 +8478,112 @@
         <v>2</v>
       </c>
       <c r="H57">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I57">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J57">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="K57">
         <v>4.2</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M57">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N57">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="O57">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P57">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q57">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="R57">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S57">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U57">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W57">
         <v>1.09</v>
       </c>
       <c r="X57">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="Y57">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z57">
+        <v>1.9</v>
+      </c>
+      <c r="AA57">
         <v>1.5</v>
       </c>
-      <c r="AA57">
-        <v>0.8</v>
-      </c>
       <c r="AB57">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AC57">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AD57">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AH57">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AK57">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AL57">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -8606,10 +8606,10 @@
         <v>221</v>
       </c>
       <c r="G58">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H58">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I58">
         <v>5.5</v>
@@ -8618,73 +8618,73 @@
         <v>1.53</v>
       </c>
       <c r="K58">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="L58">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N58">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O58">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P58">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q58">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="R58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S58">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V58">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
         <v>1.09</v>
       </c>
       <c r="X58">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="Y58">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z58">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AA58">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AC58">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AD58">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -8693,28 +8693,28 @@
         <v>0</v>
       </c>
       <c r="AJ58">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK58">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL58">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP58">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -8746,13 +8746,13 @@
         <v>2.5</v>
       </c>
       <c r="J59">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="K59">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="L59">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="M59">
         <v>1.3</v>
@@ -8773,10 +8773,10 @@
         <v>4.5</v>
       </c>
       <c r="S59">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T59">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
         <v>1.57</v>
@@ -8818,10 +8818,10 @@
         <v>1.75</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AJ59">
         <v>1.38</v>
@@ -8877,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K60">
-        <v>8.300000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="L60">
-        <v>15.5</v>
+        <v>11.08</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T60">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>77</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
         <v>143</v>
@@ -8999,85 +8999,85 @@
         <v>224</v>
       </c>
       <c r="G61">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H61">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I61">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J61">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L61">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="M61">
         <v>1.36</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="O61">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P61">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="Q61">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R61">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="S61">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V61">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X61">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="Y61">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="Z61">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
       <c r="AA61">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="AB61">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AC61">
         <v>1.03</v>
       </c>
       <c r="AD61">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AE61">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AF61">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG61">
-        <v>3.49</v>
+        <v>3.06</v>
       </c>
       <c r="AH61">
         <v>0</v>
@@ -9086,33 +9086,33 @@
         <v>0</v>
       </c>
       <c r="AJ61">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AK61">
-        <v>2.3</v>
+        <v>2.93</v>
       </c>
       <c r="AL61">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="AM61">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="AN61">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="AO61">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="AP61">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B62" s="2">
         <v>45380</v>
@@ -9121,7 +9121,7 @@
         <v>77</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E62" t="s">
         <v>144</v>
@@ -9130,115 +9130,115 @@
         <v>225</v>
       </c>
       <c r="G62">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="H62">
+        <v>2.3</v>
+      </c>
+      <c r="I62">
+        <v>2.25</v>
+      </c>
+      <c r="J62">
+        <v>4.75</v>
+      </c>
+      <c r="K62">
+        <v>3.8</v>
+      </c>
+      <c r="L62">
+        <v>1.7</v>
+      </c>
+      <c r="M62">
+        <v>1.33</v>
+      </c>
+      <c r="N62">
+        <v>3.14</v>
+      </c>
+      <c r="O62">
+        <v>1.02</v>
+      </c>
+      <c r="P62">
+        <v>10.5</v>
+      </c>
+      <c r="Q62">
+        <v>1.2</v>
+      </c>
+      <c r="R62">
+        <v>3.88</v>
+      </c>
+      <c r="S62">
+        <v>1.7</v>
+      </c>
+      <c r="T62">
+        <v>2.1</v>
+      </c>
+      <c r="U62">
+        <v>1.73</v>
+      </c>
+      <c r="V62">
         <v>2</v>
       </c>
-      <c r="I62">
-        <v>2.8</v>
-      </c>
-      <c r="J62">
-        <v>3.2</v>
-      </c>
-      <c r="K62">
-        <v>3.05</v>
-      </c>
-      <c r="L62">
-        <v>2.33</v>
-      </c>
-      <c r="M62">
-        <v>1.46</v>
-      </c>
-      <c r="N62">
-        <v>2.55</v>
-      </c>
-      <c r="O62">
-        <v>1.04</v>
-      </c>
-      <c r="P62">
-        <v>7.8</v>
-      </c>
-      <c r="Q62">
-        <v>1.36</v>
-      </c>
-      <c r="R62">
-        <v>3</v>
-      </c>
-      <c r="S62">
-        <v>2.2</v>
-      </c>
-      <c r="T62">
-        <v>1.63</v>
-      </c>
-      <c r="U62">
-        <v>1.83</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
       <c r="W62">
-        <v>1.6</v>
+        <v>2.03</v>
       </c>
       <c r="X62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y62">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Z62">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AA62">
-        <v>1.27</v>
+        <v>2.23</v>
       </c>
       <c r="AB62">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AC62">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AD62">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="AE62">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="AF62">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG62">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="AH62">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AI62">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AJ62">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="AK62">
-        <v>2.07</v>
+        <v>2.88</v>
       </c>
       <c r="AL62">
-        <v>2.13</v>
+        <v>1.68</v>
       </c>
       <c r="AM62">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="AN62">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="AO62">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="AP62">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AQ62">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -9252,7 +9252,7 @@
         <v>77</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>145</v>
@@ -9261,120 +9261,120 @@
         <v>226</v>
       </c>
       <c r="G63">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="H63">
+        <v>2.25</v>
+      </c>
+      <c r="I63">
+        <v>5.5</v>
+      </c>
+      <c r="J63">
+        <v>1.66</v>
+      </c>
+      <c r="K63">
+        <v>3.7</v>
+      </c>
+      <c r="L63">
+        <v>4.85</v>
+      </c>
+      <c r="M63">
+        <v>1.36</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>1.05</v>
+      </c>
+      <c r="P63">
+        <v>9.5</v>
+      </c>
+      <c r="Q63">
+        <v>1.28</v>
+      </c>
+      <c r="R63">
+        <v>3.55</v>
+      </c>
+      <c r="S63">
+        <v>1.91</v>
+      </c>
+      <c r="T63">
+        <v>1.93</v>
+      </c>
+      <c r="U63">
+        <v>1.91</v>
+      </c>
+      <c r="V63">
+        <v>1.91</v>
+      </c>
+      <c r="W63">
+        <v>1.15</v>
+      </c>
+      <c r="X63">
+        <v>1.2</v>
+      </c>
+      <c r="Y63">
+        <v>2.2</v>
+      </c>
+      <c r="Z63">
+        <v>1.82</v>
+      </c>
+      <c r="AA63">
+        <v>0.64</v>
+      </c>
+      <c r="AB63">
+        <v>1.4</v>
+      </c>
+      <c r="AC63">
+        <v>1.03</v>
+      </c>
+      <c r="AD63">
+        <v>2.43</v>
+      </c>
+      <c r="AE63">
+        <v>1.41</v>
+      </c>
+      <c r="AF63">
+        <v>9</v>
+      </c>
+      <c r="AG63">
+        <v>3.49</v>
+      </c>
+      <c r="AH63">
+        <v>1.22</v>
+      </c>
+      <c r="AI63">
+        <v>3.64</v>
+      </c>
+      <c r="AJ63">
+        <v>1.55</v>
+      </c>
+      <c r="AK63">
         <v>2.3</v>
       </c>
-      <c r="I63">
-        <v>2.25</v>
-      </c>
-      <c r="J63">
-        <v>4.3</v>
-      </c>
-      <c r="K63">
-        <v>3.78</v>
-      </c>
-      <c r="L63">
-        <v>1.72</v>
-      </c>
-      <c r="M63">
-        <v>1.33</v>
-      </c>
-      <c r="N63">
-        <v>3.14</v>
-      </c>
-      <c r="O63">
-        <v>1.02</v>
-      </c>
-      <c r="P63">
-        <v>10.5</v>
-      </c>
-      <c r="Q63">
-        <v>1.2</v>
-      </c>
-      <c r="R63">
-        <v>3.88</v>
-      </c>
-      <c r="S63">
-        <v>1.69</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.73</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>2.03</v>
-      </c>
-      <c r="X63">
-        <v>1.22</v>
-      </c>
-      <c r="Y63">
-        <v>1.17</v>
-      </c>
-      <c r="Z63">
-        <v>1.5</v>
-      </c>
-      <c r="AA63">
-        <v>2.23</v>
-      </c>
-      <c r="AB63">
-        <v>1.49</v>
-      </c>
-      <c r="AC63">
-        <v>1.62</v>
-      </c>
-      <c r="AD63">
-        <v>3.11</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
       <c r="AL63">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AP63">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="64" spans="1:43">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2">
         <v>45380</v>
@@ -9383,7 +9383,7 @@
         <v>77</v>
       </c>
       <c r="D64">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
         <v>146</v>
@@ -9392,115 +9392,115 @@
         <v>227</v>
       </c>
       <c r="G64">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="H64">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="J64">
-        <v>1.77</v>
+        <v>3.19</v>
       </c>
       <c r="K64">
-        <v>3.62</v>
+        <v>3.02</v>
       </c>
       <c r="L64">
-        <v>4.38</v>
+        <v>2.01</v>
       </c>
       <c r="M64">
+        <v>1.46</v>
+      </c>
+      <c r="N64">
+        <v>2.55</v>
+      </c>
+      <c r="O64">
+        <v>1.04</v>
+      </c>
+      <c r="P64">
+        <v>7.8</v>
+      </c>
+      <c r="Q64">
         <v>1.36</v>
       </c>
-      <c r="N64">
-        <v>2.97</v>
-      </c>
-      <c r="O64">
-        <v>1.01</v>
-      </c>
-      <c r="P64">
-        <v>9.6</v>
-      </c>
-      <c r="Q64">
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>2.04</v>
+      </c>
+      <c r="T64">
+        <v>1.69</v>
+      </c>
+      <c r="U64">
+        <v>1.83</v>
+      </c>
+      <c r="V64">
+        <v>1.9</v>
+      </c>
+      <c r="W64">
+        <v>1.6</v>
+      </c>
+      <c r="X64">
         <v>1.25</v>
       </c>
-      <c r="R64">
-        <v>3.42</v>
-      </c>
-      <c r="S64">
-        <v>1.88</v>
-      </c>
-      <c r="T64">
-        <v>1.88</v>
-      </c>
-      <c r="U64">
-        <v>1.8</v>
-      </c>
-      <c r="V64">
-        <v>1.91</v>
-      </c>
-      <c r="W64">
-        <v>1.17</v>
-      </c>
-      <c r="X64">
-        <v>1.24</v>
-      </c>
       <c r="Y64">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="Z64">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>1.27</v>
       </c>
       <c r="AB64">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AC64">
-        <v>1.03</v>
+        <v>1.66</v>
       </c>
       <c r="AD64">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="65" spans="1:43">
@@ -9523,22 +9523,22 @@
         <v>228</v>
       </c>
       <c r="G65">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H65">
         <v>2.3</v>
       </c>
       <c r="I65">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J65">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="K65">
         <v>3.95</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M65">
         <v>1.3</v>
@@ -9574,64 +9574,64 @@
         <v>1.17</v>
       </c>
       <c r="X65">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y65">
         <v>2.2</v>
       </c>
       <c r="Z65">
-        <v>1.8</v>
+        <v>1.27</v>
       </c>
       <c r="AA65">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="AB65">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AC65">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AD65">
-        <v>2.84</v>
+        <v>2.97</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ65">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK65">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AL65">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ65">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -9654,115 +9654,115 @@
         <v>229</v>
       </c>
       <c r="G66">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="H66">
+        <v>2.2</v>
+      </c>
+      <c r="I66">
+        <v>3.1</v>
+      </c>
+      <c r="J66">
+        <v>2.75</v>
+      </c>
+      <c r="K66">
+        <v>3.5</v>
+      </c>
+      <c r="L66">
+        <v>2.45</v>
+      </c>
+      <c r="M66">
+        <v>1.33</v>
+      </c>
+      <c r="N66">
+        <v>3.1</v>
+      </c>
+      <c r="O66">
+        <v>1.03</v>
+      </c>
+      <c r="P66">
+        <v>13</v>
+      </c>
+      <c r="Q66">
+        <v>1.22</v>
+      </c>
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>1.75</v>
+      </c>
+      <c r="T66">
+        <v>2.05</v>
+      </c>
+      <c r="U66">
+        <v>1.6</v>
+      </c>
+      <c r="V66">
         <v>2.25</v>
       </c>
-      <c r="I66">
-        <v>2.95</v>
-      </c>
-      <c r="J66">
-        <v>2.6</v>
-      </c>
-      <c r="K66">
-        <v>3.45</v>
-      </c>
-      <c r="L66">
-        <v>2.55</v>
-      </c>
-      <c r="M66">
-        <v>1.28</v>
-      </c>
-      <c r="N66">
-        <v>3.35</v>
-      </c>
-      <c r="O66">
-        <v>1.02</v>
-      </c>
-      <c r="P66">
-        <v>18</v>
-      </c>
-      <c r="Q66">
-        <v>1.18</v>
-      </c>
-      <c r="R66">
-        <v>4.75</v>
-      </c>
-      <c r="S66">
+      <c r="W66">
         <v>1.55</v>
-      </c>
-      <c r="T66">
-        <v>2.4</v>
-      </c>
-      <c r="U66">
-        <v>1.42</v>
-      </c>
-      <c r="V66">
-        <v>2.6</v>
-      </c>
-      <c r="W66">
-        <v>1.5</v>
       </c>
       <c r="X66">
         <v>1.25</v>
       </c>
       <c r="Y66">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="Z66">
-        <v>1.07</v>
+        <v>1.93</v>
       </c>
       <c r="AA66">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AB66">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AC66">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AD66">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ66">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AM66">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN66">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO66">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ66">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -9785,115 +9785,115 @@
         <v>230</v>
       </c>
       <c r="G67">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H67">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="I67">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="J67">
-        <v>1.36</v>
+        <v>3.2</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="L67">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="M67">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O67">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P67">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q67">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="R67">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="S67">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="T67">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="U67">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="V67">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="W67">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="X67">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="Y67">
-        <v>2.9</v>
+        <v>1.33</v>
       </c>
       <c r="Z67">
-        <v>1.67</v>
+        <v>0.88</v>
       </c>
       <c r="AA67">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AB67">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="AC67">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AD67">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG67">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ67">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK67">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AL67">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AP67">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -9916,115 +9916,115 @@
         <v>231</v>
       </c>
       <c r="G68">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="H68">
+        <v>2.25</v>
+      </c>
+      <c r="I68">
+        <v>2.95</v>
+      </c>
+      <c r="J68">
+        <v>2.6</v>
+      </c>
+      <c r="K68">
+        <v>3.45</v>
+      </c>
+      <c r="L68">
         <v>2.55</v>
       </c>
-      <c r="I68">
+      <c r="M68">
+        <v>1.28</v>
+      </c>
+      <c r="N68">
+        <v>3.35</v>
+      </c>
+      <c r="O68">
+        <v>1.02</v>
+      </c>
+      <c r="P68">
+        <v>18</v>
+      </c>
+      <c r="Q68">
+        <v>1.18</v>
+      </c>
+      <c r="R68">
         <v>4.75</v>
       </c>
-      <c r="J68">
-        <v>1.57</v>
-      </c>
-      <c r="K68">
+      <c r="S68">
+        <v>1.55</v>
+      </c>
+      <c r="T68">
+        <v>2.4</v>
+      </c>
+      <c r="U68">
+        <v>1.42</v>
+      </c>
+      <c r="V68">
+        <v>2.6</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>1.25</v>
+      </c>
+      <c r="Y68">
+        <v>1.48</v>
+      </c>
+      <c r="Z68">
+        <v>1.07</v>
+      </c>
+      <c r="AA68">
+        <v>1.33</v>
+      </c>
+      <c r="AB68">
+        <v>1.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.64</v>
+      </c>
+      <c r="AD68">
+        <v>3.14</v>
+      </c>
+      <c r="AE68">
+        <v>2.27</v>
+      </c>
+      <c r="AF68">
+        <v>7.6</v>
+      </c>
+      <c r="AG68">
+        <v>1.9</v>
+      </c>
+      <c r="AH68">
+        <v>1.17</v>
+      </c>
+      <c r="AI68">
         <v>4.5</v>
       </c>
-      <c r="L68">
-        <v>5</v>
-      </c>
-      <c r="M68">
-        <v>1.22</v>
-      </c>
-      <c r="N68">
-        <v>3.9</v>
-      </c>
-      <c r="O68">
-        <v>1.01</v>
-      </c>
-      <c r="P68">
-        <v>11</v>
-      </c>
-      <c r="Q68">
-        <v>1.14</v>
-      </c>
-      <c r="R68">
-        <v>5.5</v>
-      </c>
-      <c r="S68">
-        <v>1.47</v>
-      </c>
-      <c r="T68">
-        <v>2.65</v>
-      </c>
-      <c r="U68">
+      <c r="AJ68">
+        <v>1.32</v>
+      </c>
+      <c r="AK68">
+        <v>3.1</v>
+      </c>
+      <c r="AL68">
+        <v>1.58</v>
+      </c>
+      <c r="AM68">
+        <v>2.32</v>
+      </c>
+      <c r="AN68">
+        <v>1.94</v>
+      </c>
+      <c r="AO68">
+        <v>1.85</v>
+      </c>
+      <c r="AP68">
+        <v>2.44</v>
+      </c>
+      <c r="AQ68">
         <v>1.53</v>
-      </c>
-      <c r="V68">
-        <v>2.45</v>
-      </c>
-      <c r="W68">
-        <v>1.17</v>
-      </c>
-      <c r="X68">
-        <v>1.16</v>
-      </c>
-      <c r="Y68">
-        <v>2.4</v>
-      </c>
-      <c r="Z68">
-        <v>1.64</v>
-      </c>
-      <c r="AA68">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB68">
-        <v>1.81</v>
-      </c>
-      <c r="AC68">
-        <v>1.44</v>
-      </c>
-      <c r="AD68">
-        <v>3.25</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
-      <c r="AK68">
-        <v>0</v>
-      </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
-      <c r="AM68">
-        <v>0</v>
-      </c>
-      <c r="AN68">
-        <v>0</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
-      <c r="AP68">
-        <v>0</v>
-      </c>
-      <c r="AQ68">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:43">
@@ -10047,115 +10047,115 @@
         <v>232</v>
       </c>
       <c r="G69">
+        <v>4.2</v>
+      </c>
+      <c r="H69">
         <v>2.2</v>
       </c>
-      <c r="H69">
-        <v>2.5</v>
-      </c>
       <c r="I69">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>3.7</v>
+      </c>
+      <c r="L69">
+        <v>1.8</v>
+      </c>
+      <c r="M69">
+        <v>1.33</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <v>1.04</v>
+      </c>
+      <c r="P69">
+        <v>10</v>
+      </c>
+      <c r="Q69">
+        <v>1.22</v>
+      </c>
+      <c r="R69">
+        <v>4</v>
+      </c>
+      <c r="S69">
         <v>1.7</v>
       </c>
-      <c r="K69">
-        <v>4.2</v>
-      </c>
-      <c r="L69">
-        <v>4.33</v>
-      </c>
-      <c r="M69">
-        <v>1.24</v>
-      </c>
-      <c r="N69">
+      <c r="T69">
+        <v>2.1</v>
+      </c>
+      <c r="U69">
+        <v>1.62</v>
+      </c>
+      <c r="V69">
+        <v>2.1</v>
+      </c>
+      <c r="W69">
+        <v>1.95</v>
+      </c>
+      <c r="X69">
+        <v>1.22</v>
+      </c>
+      <c r="Y69">
+        <v>1.22</v>
+      </c>
+      <c r="Z69">
+        <v>1.81</v>
+      </c>
+      <c r="AA69">
+        <v>1.87</v>
+      </c>
+      <c r="AB69">
+        <v>1.54</v>
+      </c>
+      <c r="AC69">
+        <v>1.48</v>
+      </c>
+      <c r="AD69">
+        <v>3.02</v>
+      </c>
+      <c r="AE69">
+        <v>2.86</v>
+      </c>
+      <c r="AF69">
+        <v>8.1</v>
+      </c>
+      <c r="AG69">
+        <v>1.62</v>
+      </c>
+      <c r="AH69">
+        <v>1.23</v>
+      </c>
+      <c r="AI69">
         <v>3.7</v>
       </c>
-      <c r="O69">
-        <v>1.01</v>
-      </c>
-      <c r="P69">
-        <v>11</v>
-      </c>
-      <c r="Q69">
-        <v>1.14</v>
-      </c>
-      <c r="R69">
-        <v>5.5</v>
-      </c>
-      <c r="S69">
-        <v>1.47</v>
-      </c>
-      <c r="T69">
-        <v>2.65</v>
-      </c>
-      <c r="U69">
-        <v>1.5</v>
-      </c>
-      <c r="V69">
-        <v>2.45</v>
-      </c>
-      <c r="W69">
-        <v>1.2</v>
-      </c>
-      <c r="X69">
-        <v>1.18</v>
-      </c>
-      <c r="Y69">
-        <v>2.15</v>
-      </c>
-      <c r="Z69">
-        <v>1.8</v>
-      </c>
-      <c r="AA69">
-        <v>0.93</v>
-      </c>
-      <c r="AB69">
+      <c r="AJ69">
+        <v>1.39</v>
+      </c>
+      <c r="AK69">
+        <v>2.77</v>
+      </c>
+      <c r="AL69">
         <v>1.76</v>
       </c>
-      <c r="AC69">
-        <v>1.35</v>
-      </c>
-      <c r="AD69">
-        <v>3.11</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-      <c r="AI69">
-        <v>0</v>
-      </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
-      <c r="AK69">
-        <v>0</v>
-      </c>
-      <c r="AL69">
-        <v>0</v>
-      </c>
       <c r="AM69">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN69">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP69">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="70" spans="1:43">
@@ -10178,115 +10178,115 @@
         <v>233</v>
       </c>
       <c r="G70">
+        <v>2.2</v>
+      </c>
+      <c r="H70">
+        <v>2.5</v>
+      </c>
+      <c r="I70">
+        <v>4.5</v>
+      </c>
+      <c r="J70">
+        <v>1.7</v>
+      </c>
+      <c r="K70">
         <v>4.2</v>
       </c>
-      <c r="H70">
-        <v>2.2</v>
-      </c>
-      <c r="I70">
-        <v>2.35</v>
-      </c>
-      <c r="J70">
-        <v>4</v>
-      </c>
-      <c r="K70">
+      <c r="L70">
+        <v>4.33</v>
+      </c>
+      <c r="M70">
+        <v>1.24</v>
+      </c>
+      <c r="N70">
         <v>3.7</v>
       </c>
-      <c r="L70">
+      <c r="O70">
+        <v>1.01</v>
+      </c>
+      <c r="P70">
+        <v>11</v>
+      </c>
+      <c r="Q70">
+        <v>1.14</v>
+      </c>
+      <c r="R70">
+        <v>5.5</v>
+      </c>
+      <c r="S70">
+        <v>1.47</v>
+      </c>
+      <c r="T70">
+        <v>2.65</v>
+      </c>
+      <c r="U70">
+        <v>1.5</v>
+      </c>
+      <c r="V70">
+        <v>2.45</v>
+      </c>
+      <c r="W70">
+        <v>1.2</v>
+      </c>
+      <c r="X70">
+        <v>1.18</v>
+      </c>
+      <c r="Y70">
+        <v>2.15</v>
+      </c>
+      <c r="Z70">
         <v>1.8</v>
       </c>
-      <c r="M70">
+      <c r="AA70">
+        <v>0.93</v>
+      </c>
+      <c r="AB70">
+        <v>1.76</v>
+      </c>
+      <c r="AC70">
+        <v>1.35</v>
+      </c>
+      <c r="AD70">
+        <v>3.11</v>
+      </c>
+      <c r="AE70">
+        <v>1.51</v>
+      </c>
+      <c r="AF70">
+        <v>7.7</v>
+      </c>
+      <c r="AG70">
+        <v>3.35</v>
+      </c>
+      <c r="AH70">
+        <v>1.21</v>
+      </c>
+      <c r="AI70">
+        <v>3.9</v>
+      </c>
+      <c r="AJ70">
         <v>1.33</v>
       </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <v>1.04</v>
-      </c>
-      <c r="P70">
-        <v>10</v>
-      </c>
-      <c r="Q70">
-        <v>1.22</v>
-      </c>
-      <c r="R70">
-        <v>4</v>
-      </c>
-      <c r="S70">
-        <v>1.7</v>
-      </c>
-      <c r="T70">
+      <c r="AK70">
+        <v>3.05</v>
+      </c>
+      <c r="AL70">
+        <v>1.68</v>
+      </c>
+      <c r="AM70">
+        <v>2.16</v>
+      </c>
+      <c r="AN70">
         <v>2.1</v>
       </c>
-      <c r="U70">
-        <v>1.62</v>
-      </c>
-      <c r="V70">
-        <v>2.1</v>
-      </c>
-      <c r="W70">
-        <v>1.95</v>
-      </c>
-      <c r="X70">
-        <v>1.22</v>
-      </c>
-      <c r="Y70">
-        <v>1.22</v>
-      </c>
-      <c r="Z70">
-        <v>1.81</v>
-      </c>
-      <c r="AA70">
-        <v>1.87</v>
-      </c>
-      <c r="AB70">
-        <v>1.54</v>
-      </c>
-      <c r="AC70">
-        <v>1.48</v>
-      </c>
-      <c r="AD70">
-        <v>3.02</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>0</v>
-      </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
-      <c r="AK70">
-        <v>0</v>
-      </c>
-      <c r="AL70">
-        <v>0</v>
-      </c>
-      <c r="AM70">
-        <v>0</v>
-      </c>
-      <c r="AN70">
-        <v>0</v>
-      </c>
       <c r="AO70">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AP70">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="71" spans="1:43">
@@ -10309,115 +10309,115 @@
         <v>234</v>
       </c>
       <c r="G71">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H71">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="I71">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="J71">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
       <c r="K71">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L71">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="M71">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="N71">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P71">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q71">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="R71">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="S71">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="T71">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="U71">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="V71">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="W71">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
       <c r="X71">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="Y71">
-        <v>1.33</v>
+        <v>2.9</v>
       </c>
       <c r="Z71">
-        <v>0.88</v>
+        <v>1.67</v>
       </c>
       <c r="AA71">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AB71">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="AC71">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AD71">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG71">
-        <v>0</v>
+        <v>5.96</v>
       </c>
       <c r="AH71">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI71">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ71">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK71">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL71">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM71">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP71">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="72" spans="1:43">
@@ -10440,115 +10440,115 @@
         <v>235</v>
       </c>
       <c r="G72">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H72">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I72">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="J72">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="K72">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L72">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N72">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O72">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P72">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q72">
         <v>1.22</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T72">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="U72">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V72">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W72">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="X72">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Y72">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="Z72">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AA72">
-        <v>1.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB72">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AC72">
+        <v>1.21</v>
+      </c>
+      <c r="AD72">
+        <v>2.84</v>
+      </c>
+      <c r="AE72">
+        <v>1.51</v>
+      </c>
+      <c r="AF72">
+        <v>7.7</v>
+      </c>
+      <c r="AG72">
+        <v>3.35</v>
+      </c>
+      <c r="AH72">
+        <v>1.21</v>
+      </c>
+      <c r="AI72">
+        <v>3.9</v>
+      </c>
+      <c r="AJ72">
+        <v>1.34</v>
+      </c>
+      <c r="AK72">
+        <v>3</v>
+      </c>
+      <c r="AL72">
         <v>1.68</v>
       </c>
-      <c r="AD72">
-        <v>3.38</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <v>0</v>
-      </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
       <c r="AM72">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AN72">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP72">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="73" spans="1:43">
@@ -10571,120 +10571,120 @@
         <v>236</v>
       </c>
       <c r="G73">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H73">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="I73">
+        <v>4.75</v>
+      </c>
+      <c r="J73">
+        <v>1.57</v>
+      </c>
+      <c r="K73">
         <v>4.5</v>
       </c>
-      <c r="J73">
-        <v>1.65</v>
-      </c>
-      <c r="K73">
-        <v>3.95</v>
-      </c>
       <c r="L73">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="N73">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="O73">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q73">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="R73">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="S73">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="T73">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="U73">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V73">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="W73">
         <v>1.17</v>
       </c>
       <c r="X73">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="Y73">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z73">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AA73">
-        <v>0.38</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB73">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="AC73">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AD73">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI73">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ73">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK73">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL73">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM73">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AN73">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AP73">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AQ73">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="74" spans="1:43">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B74" s="2">
         <v>45380</v>
@@ -10693,7 +10693,7 @@
         <v>79</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
         <v>156</v>
@@ -10702,120 +10702,120 @@
         <v>237</v>
       </c>
       <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>2.1</v>
+      </c>
+      <c r="I74">
+        <v>3.25</v>
+      </c>
+      <c r="J74">
+        <v>2.27</v>
+      </c>
+      <c r="K74">
         <v>3.2</v>
       </c>
-      <c r="H74">
-        <v>2.2</v>
-      </c>
-      <c r="I74">
-        <v>2.88</v>
-      </c>
-      <c r="J74">
-        <v>2.65</v>
-      </c>
-      <c r="K74">
-        <v>3.4</v>
-      </c>
       <c r="L74">
-        <v>2.42</v>
+        <v>2.73</v>
       </c>
       <c r="M74">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="N74">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
         <v>1.01</v>
       </c>
       <c r="P74">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q74">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="R74">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="S74">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="U74">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V74">
         <v>2.1</v>
       </c>
       <c r="W74">
+        <v>1.38</v>
+      </c>
+      <c r="X74">
+        <v>1.25</v>
+      </c>
+      <c r="Y74">
+        <v>1.47</v>
+      </c>
+      <c r="Z74">
+        <v>1.33</v>
+      </c>
+      <c r="AA74">
+        <v>1.08</v>
+      </c>
+      <c r="AB74">
+        <v>1.52</v>
+      </c>
+      <c r="AC74">
+        <v>1.32</v>
+      </c>
+      <c r="AD74">
+        <v>2.84</v>
+      </c>
+      <c r="AE74">
+        <v>1.68</v>
+      </c>
+      <c r="AF74">
+        <v>9.1</v>
+      </c>
+      <c r="AG74">
+        <v>2.42</v>
+      </c>
+      <c r="AH74">
+        <v>1.18</v>
+      </c>
+      <c r="AI74">
+        <v>4.33</v>
+      </c>
+      <c r="AJ74">
+        <v>1.33</v>
+      </c>
+      <c r="AK74">
+        <v>3</v>
+      </c>
+      <c r="AL74">
         <v>1.54</v>
       </c>
-      <c r="X74">
-        <v>1.26</v>
-      </c>
-      <c r="Y74">
-        <v>1.39</v>
-      </c>
-      <c r="Z74">
-        <v>1</v>
-      </c>
-      <c r="AA74">
-        <v>1</v>
-      </c>
-      <c r="AB74">
-        <v>1.51</v>
-      </c>
-      <c r="AC74">
-        <v>1.46</v>
-      </c>
-      <c r="AD74">
-        <v>2.97</v>
-      </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-      <c r="AI74">
-        <v>0</v>
-      </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
-      <c r="AK74">
-        <v>0</v>
-      </c>
-      <c r="AL74">
-        <v>0</v>
-      </c>
       <c r="AM74">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AN74">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO74">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AP74">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AQ74">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B75" s="2">
         <v>45380</v>
@@ -10824,7 +10824,7 @@
         <v>79</v>
       </c>
       <c r="D75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
         <v>157</v>
@@ -10833,115 +10833,115 @@
         <v>238</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H75">
         <v>2.1</v>
       </c>
       <c r="I75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="K75">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L75">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="M75">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="N75">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="O75">
         <v>1.01</v>
       </c>
       <c r="P75">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Q75">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="R75">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="S75">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U75">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W75">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="X75">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Y75">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="Z75">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AB75">
+        <v>1.51</v>
+      </c>
+      <c r="AC75">
+        <v>1.46</v>
+      </c>
+      <c r="AD75">
+        <v>2.97</v>
+      </c>
+      <c r="AE75">
+        <v>2.26</v>
+      </c>
+      <c r="AF75">
+        <v>9.1</v>
+      </c>
+      <c r="AG75">
+        <v>1.77</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>1.26</v>
+      </c>
+      <c r="AK75">
+        <v>3.34</v>
+      </c>
+      <c r="AL75">
         <v>1.52</v>
       </c>
-      <c r="AC75">
-        <v>1.32</v>
-      </c>
-      <c r="AD75">
-        <v>2.84</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-      <c r="AI75">
-        <v>0</v>
-      </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
-      <c r="AK75">
-        <v>0</v>
-      </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
       <c r="AM75">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AN75">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AO75">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AP75">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AQ75">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="76" spans="1:43">
@@ -10973,13 +10973,13 @@
         <v>3.55</v>
       </c>
       <c r="J76">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="K76">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="L76">
-        <v>2.82</v>
+        <v>2.59</v>
       </c>
       <c r="M76">
         <v>1.53</v>
@@ -11000,10 +11000,10 @@
         <v>2.7</v>
       </c>
       <c r="S76">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="T76">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U76">
         <v>1.95</v>
@@ -11098,19 +11098,19 @@
         <v>2.75</v>
       </c>
       <c r="H77">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I77">
         <v>3.6</v>
       </c>
       <c r="J77">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K77">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M77">
         <v>1.4</v>
@@ -11131,16 +11131,16 @@
         <v>3.5</v>
       </c>
       <c r="S77">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V77">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W77">
         <v>1.35</v>
@@ -11167,43 +11167,43 @@
         <v>3.37</v>
       </c>
       <c r="AE77">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG77">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI77">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ77">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AK77">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AL77">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AM77">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO77">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP77">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ77">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="78" spans="1:43">
@@ -11235,13 +11235,13 @@
         <v>4.75</v>
       </c>
       <c r="J78">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="K78">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>4.47</v>
       </c>
       <c r="M78">
         <v>1.29</v>
@@ -11262,10 +11262,10 @@
         <v>4.33</v>
       </c>
       <c r="S78">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="T78">
-        <v>2.29</v>
+        <v>2.16</v>
       </c>
       <c r="U78">
         <v>1.66</v>
@@ -11307,10 +11307,10 @@
         <v>4.6</v>
       </c>
       <c r="AH78">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI78">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ78">
         <v>1.47</v>
@@ -11331,10 +11331,10 @@
         <v>1.54</v>
       </c>
       <c r="AP78">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AQ78">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="79" spans="1:43">
@@ -11348,7 +11348,7 @@
         <v>82</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E79" t="s">
         <v>161</v>
@@ -11357,120 +11357,120 @@
         <v>242</v>
       </c>
       <c r="G79">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H79">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J79">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="L79">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="M79">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O79">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="P79">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="Q79">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="R79">
-        <v>3.52</v>
+        <v>2.9</v>
       </c>
       <c r="S79">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="T79">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
         <v>1.8</v>
       </c>
-      <c r="V79">
-        <v>1.95</v>
-      </c>
       <c r="W79">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X79">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Y79">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Z79">
-        <v>2.25</v>
+        <v>1.14</v>
       </c>
       <c r="AA79">
-        <v>1.46</v>
+        <v>0.14</v>
       </c>
       <c r="AB79">
+        <v>1.27</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>2.28</v>
+      </c>
+      <c r="AE79">
         <v>1.71</v>
-      </c>
-      <c r="AC79">
-        <v>1.35</v>
-      </c>
-      <c r="AD79">
-        <v>3.06</v>
-      </c>
-      <c r="AE79">
-        <v>1.67</v>
       </c>
       <c r="AF79">
         <v>7.5</v>
       </c>
       <c r="AG79">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH79">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AI79">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="AJ79">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK79">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="AL79">
-        <v>2.04</v>
+        <v>2.33</v>
       </c>
       <c r="AM79">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AN79">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="AO79">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AP79">
-        <v>3.5</v>
+        <v>4.35</v>
       </c>
       <c r="AQ79">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="80" spans="1:43">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B80" s="2">
         <v>45380</v>
@@ -11479,7 +11479,7 @@
         <v>82</v>
       </c>
       <c r="D80">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
         <v>162</v>
@@ -11488,120 +11488,120 @@
         <v>243</v>
       </c>
       <c r="G80">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="H80">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>1.98</v>
+      </c>
+      <c r="K80">
+        <v>3.18</v>
+      </c>
+      <c r="L80">
+        <v>3.23</v>
+      </c>
+      <c r="M80">
+        <v>1.4</v>
+      </c>
+      <c r="N80">
+        <v>2.75</v>
+      </c>
+      <c r="O80">
+        <v>1.02</v>
+      </c>
+      <c r="P80">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q80">
+        <v>1.32</v>
+      </c>
+      <c r="R80">
+        <v>3.52</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>1.88</v>
+      </c>
+      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="V80">
+        <v>1.95</v>
+      </c>
+      <c r="W80">
+        <v>1.3</v>
+      </c>
+      <c r="X80">
+        <v>1.29</v>
+      </c>
+      <c r="Y80">
+        <v>1.72</v>
+      </c>
+      <c r="Z80">
+        <v>2.25</v>
+      </c>
+      <c r="AA80">
+        <v>1.46</v>
+      </c>
+      <c r="AB80">
+        <v>1.71</v>
+      </c>
+      <c r="AC80">
+        <v>1.35</v>
+      </c>
+      <c r="AD80">
+        <v>3.06</v>
+      </c>
+      <c r="AE80">
+        <v>1.67</v>
+      </c>
+      <c r="AF80">
+        <v>7.5</v>
+      </c>
+      <c r="AG80">
+        <v>2.6</v>
+      </c>
+      <c r="AH80">
+        <v>1.34</v>
+      </c>
+      <c r="AI80">
+        <v>2.8</v>
+      </c>
+      <c r="AJ80">
+        <v>1.62</v>
+      </c>
+      <c r="AK80">
         <v>2.1</v>
       </c>
-      <c r="J80">
-        <v>5</v>
-      </c>
-      <c r="K80">
-        <v>4.1</v>
-      </c>
-      <c r="L80">
-        <v>1.57</v>
-      </c>
-      <c r="M80">
-        <v>1.33</v>
-      </c>
-      <c r="N80">
-        <v>3.25</v>
-      </c>
-      <c r="O80">
-        <v>1.03</v>
-      </c>
-      <c r="P80">
-        <v>15</v>
-      </c>
-      <c r="Q80">
+      <c r="AL80">
+        <v>2.04</v>
+      </c>
+      <c r="AM80">
+        <v>1.67</v>
+      </c>
+      <c r="AN80">
+        <v>2.63</v>
+      </c>
+      <c r="AO80">
+        <v>1.38</v>
+      </c>
+      <c r="AP80">
+        <v>3.5</v>
+      </c>
+      <c r="AQ80">
         <v>1.22</v>
-      </c>
-      <c r="R80">
-        <v>4.33</v>
-      </c>
-      <c r="S80">
-        <v>1.67</v>
-      </c>
-      <c r="T80">
-        <v>2.05</v>
-      </c>
-      <c r="U80">
-        <v>1.73</v>
-      </c>
-      <c r="V80">
-        <v>2</v>
-      </c>
-      <c r="W80">
-        <v>2.3</v>
-      </c>
-      <c r="X80">
-        <v>1.22</v>
-      </c>
-      <c r="Y80">
-        <v>1.16</v>
-      </c>
-      <c r="Z80">
-        <v>1.11</v>
-      </c>
-      <c r="AA80">
-        <v>1.74</v>
-      </c>
-      <c r="AB80">
-        <v>1.64</v>
-      </c>
-      <c r="AC80">
-        <v>1.37</v>
-      </c>
-      <c r="AD80">
-        <v>3.01</v>
-      </c>
-      <c r="AE80">
-        <v>2.91</v>
-      </c>
-      <c r="AF80">
-        <v>8.5</v>
-      </c>
-      <c r="AG80">
-        <v>1.55</v>
-      </c>
-      <c r="AH80">
-        <v>0</v>
-      </c>
-      <c r="AI80">
-        <v>0</v>
-      </c>
-      <c r="AJ80">
-        <v>1.3</v>
-      </c>
-      <c r="AK80">
-        <v>3.1</v>
-      </c>
-      <c r="AL80">
-        <v>1.54</v>
-      </c>
-      <c r="AM80">
-        <v>2.3</v>
-      </c>
-      <c r="AN80">
-        <v>1.98</v>
-      </c>
-      <c r="AO80">
-        <v>1.82</v>
-      </c>
-      <c r="AP80">
-        <v>2.43</v>
-      </c>
-      <c r="AQ80">
-        <v>1.48</v>
       </c>
     </row>
     <row r="81" spans="1:43">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B81" s="2">
         <v>45380</v>
@@ -11610,7 +11610,7 @@
         <v>82</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s">
         <v>163</v>
@@ -11619,115 +11619,115 @@
         <v>244</v>
       </c>
       <c r="G81">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="H81">
+        <v>2.38</v>
+      </c>
+      <c r="I81">
+        <v>2.1</v>
+      </c>
+      <c r="J81">
+        <v>4.99</v>
+      </c>
+      <c r="K81">
+        <v>3.89</v>
+      </c>
+      <c r="L81">
+        <v>1.55</v>
+      </c>
+      <c r="M81">
+        <v>1.33</v>
+      </c>
+      <c r="N81">
+        <v>3.25</v>
+      </c>
+      <c r="O81">
+        <v>1.03</v>
+      </c>
+      <c r="P81">
+        <v>15</v>
+      </c>
+      <c r="Q81">
+        <v>1.22</v>
+      </c>
+      <c r="R81">
+        <v>4.33</v>
+      </c>
+      <c r="S81">
+        <v>1.66</v>
+      </c>
+      <c r="T81">
+        <v>2.14</v>
+      </c>
+      <c r="U81">
+        <v>1.73</v>
+      </c>
+      <c r="V81">
         <v>2</v>
       </c>
-      <c r="I81">
-        <v>4.33</v>
-      </c>
-      <c r="J81">
-        <v>2.06</v>
-      </c>
-      <c r="K81">
-        <v>3.4</v>
-      </c>
-      <c r="L81">
-        <v>3.85</v>
-      </c>
-      <c r="M81">
-        <v>1.5</v>
-      </c>
-      <c r="N81">
-        <v>2.5</v>
-      </c>
-      <c r="O81">
-        <v>1.08</v>
-      </c>
-      <c r="P81">
+      <c r="W81">
+        <v>2.3</v>
+      </c>
+      <c r="X81">
+        <v>1.22</v>
+      </c>
+      <c r="Y81">
+        <v>1.16</v>
+      </c>
+      <c r="Z81">
+        <v>1.11</v>
+      </c>
+      <c r="AA81">
+        <v>1.74</v>
+      </c>
+      <c r="AB81">
+        <v>1.64</v>
+      </c>
+      <c r="AC81">
+        <v>1.37</v>
+      </c>
+      <c r="AD81">
+        <v>3.01</v>
+      </c>
+      <c r="AE81">
+        <v>2.91</v>
+      </c>
+      <c r="AF81">
         <v>8.5</v>
       </c>
-      <c r="Q81">
-        <v>1.42</v>
-      </c>
-      <c r="R81">
-        <v>2.9</v>
-      </c>
-      <c r="S81">
-        <v>2.16</v>
-      </c>
-      <c r="T81">
-        <v>1.7</v>
-      </c>
-      <c r="U81">
-        <v>1.95</v>
-      </c>
-      <c r="V81">
-        <v>1.8</v>
-      </c>
-      <c r="W81">
-        <v>1.28</v>
-      </c>
-      <c r="X81">
-        <v>1.31</v>
-      </c>
-      <c r="Y81">
-        <v>1.73</v>
-      </c>
-      <c r="Z81">
-        <v>1.14</v>
-      </c>
-      <c r="AA81">
-        <v>0.14</v>
-      </c>
-      <c r="AB81">
-        <v>1.27</v>
-      </c>
-      <c r="AC81">
-        <v>1.01</v>
-      </c>
-      <c r="AD81">
-        <v>2.28</v>
-      </c>
-      <c r="AE81">
-        <v>1.71</v>
-      </c>
-      <c r="AF81">
-        <v>7.5</v>
-      </c>
       <c r="AG81">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="AH81">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="AI81">
+        <v>4.35</v>
+      </c>
+      <c r="AJ81">
+        <v>1.3</v>
+      </c>
+      <c r="AK81">
+        <v>3.1</v>
+      </c>
+      <c r="AL81">
+        <v>1.54</v>
+      </c>
+      <c r="AM81">
+        <v>2.3</v>
+      </c>
+      <c r="AN81">
+        <v>1.98</v>
+      </c>
+      <c r="AO81">
+        <v>1.82</v>
+      </c>
+      <c r="AP81">
         <v>2.43</v>
       </c>
-      <c r="AJ81">
-        <v>1.83</v>
-      </c>
-      <c r="AK81">
-        <v>1.86</v>
-      </c>
-      <c r="AL81">
-        <v>2.33</v>
-      </c>
-      <c r="AM81">
-        <v>1.5</v>
-      </c>
-      <c r="AN81">
-        <v>3.1</v>
-      </c>
-      <c r="AO81">
-        <v>1.28</v>
-      </c>
-      <c r="AP81">
-        <v>4.35</v>
-      </c>
       <c r="AQ81">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="82" spans="1:43">
@@ -11759,10 +11759,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K82">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L82">
         <v>1.26</v>
@@ -11786,10 +11786,10 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="T82">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="U82">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -289,12 +289,12 @@
     <t>Pontypridd Town AFC</t>
   </si>
   <si>
+    <t>Millwall</t>
+  </si>
+  <si>
     <t>Čukarički</t>
   </si>
   <si>
-    <t>Millwall</t>
-  </si>
-  <si>
     <t>Paços de Ferreira</t>
   </si>
   <si>
@@ -313,105 +313,105 @@
     <t>Accrington Stanley</t>
   </si>
   <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Preston North End</t>
+  </si>
+  <si>
+    <t>Salford City</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>Radnik Surdulica</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
     <t>Lincoln City</t>
   </si>
   <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Salford City</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Cardiff City</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Hull City</t>
+    <t>Queens Park Rangers</t>
   </si>
   <si>
     <t>Norwich City</t>
   </si>
   <si>
-    <t>Radnik Surdulica</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>Peterborough United</t>
-  </si>
-  <si>
-    <t>Queens Park Rangers</t>
-  </si>
-  <si>
-    <t>Preston North End</t>
+    <t>Gil Vicente</t>
   </si>
   <si>
     <t>CD Tondela</t>
   </si>
   <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
     <t>Voluntari</t>
   </si>
   <si>
@@ -421,18 +421,18 @@
     <t>Ružomberok</t>
   </si>
   <si>
+    <t>IMT Novi Beograd</t>
+  </si>
+  <si>
+    <t>Slaven Koprivnica</t>
+  </si>
+  <si>
+    <t>Levski Sofia</t>
+  </si>
+  <si>
     <t>Bačka Topola</t>
   </si>
   <si>
-    <t>Slaven Koprivnica</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
-  </si>
-  <si>
-    <t>IMT Novi Beograd</t>
-  </si>
-  <si>
     <t>Leoben</t>
   </si>
   <si>
@@ -457,19 +457,25 @@
     <t>Sepsi</t>
   </si>
   <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
     <t>Telstar</t>
   </si>
   <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
     <t>Eindhoven</t>
   </si>
   <si>
-    <t>Helmond Sport</t>
+    <t>VVV</t>
   </si>
   <si>
     <t>De Graafschap</t>
@@ -478,24 +484,18 @@
     <t>NAC Breda</t>
   </si>
   <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Emmen</t>
-  </si>
-  <si>
     <t>Domžale</t>
   </si>
   <si>
     <t>Bellinzona</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>Burgos CF</t>
   </si>
   <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>KAA Gent</t>
   </si>
   <si>
@@ -532,12 +532,12 @@
     <t>Haverfordwest County</t>
   </si>
   <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
     <t>Novi Pazar</t>
   </si>
   <si>
-    <t>West Bromwich Albion</t>
-  </si>
-  <si>
     <t>UD Oliveirense</t>
   </si>
   <si>
@@ -556,105 +556,105 @@
     <t>Morecambe</t>
   </si>
   <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Cheltenham Town</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Vojvodina</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
     <t>Leyton Orient</t>
   </si>
   <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Stockport County</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Cheltenham Town</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Grimsby Town</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Sutton United</t>
-  </si>
-  <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Oxford United</t>
-  </si>
-  <si>
-    <t>Burton Albion</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Bolton Wanderers</t>
-  </si>
-  <si>
-    <t>Stoke City</t>
+    <t>Birmingham City</t>
   </si>
   <si>
     <t>Plymouth Argyle</t>
   </si>
   <si>
-    <t>Vojvodina</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Swansea City</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Rotherham United</t>
+    <t>Famalicão</t>
   </si>
   <si>
     <t>Vilaverdense</t>
   </si>
   <si>
-    <t>Famalicão</t>
-  </si>
-  <si>
     <t>Hermannstadt</t>
   </si>
   <si>
@@ -664,18 +664,18 @@
     <t>DAC</t>
   </si>
   <si>
+    <t>Železničar Pančevo</t>
+  </si>
+  <si>
+    <t>Osijek</t>
+  </si>
+  <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Voždovac</t>
   </si>
   <si>
-    <t>Osijek</t>
-  </si>
-  <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Železničar Pančevo</t>
-  </si>
-  <si>
     <t>Kapfenberger SV</t>
   </si>
   <si>
@@ -700,19 +700,25 @@
     <t>CFR Cluj</t>
   </si>
   <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
     <t>Utrecht II</t>
   </si>
   <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
     <t>Cambuur</t>
   </si>
   <si>
-    <t>Willem II</t>
+    <t>Oss</t>
   </si>
   <si>
     <t>AZ II</t>
@@ -721,22 +727,16 @@
     <t>MVV</t>
   </si>
   <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
     <t>Mura</t>
   </si>
   <si>
     <t>Aarau</t>
   </si>
   <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
     <t>RCD Espanyol</t>
-  </si>
-  <si>
-    <t>Grazer AK</t>
   </si>
   <si>
     <t>Standard Liège</t>
@@ -1279,13 +1279,13 @@
         <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="K2">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="M2">
         <v>1.47</v>
@@ -1306,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
         <v>1.83</v>
@@ -1327,10 +1327,10 @@
         <v>1.5</v>
       </c>
       <c r="Z2">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AA2">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AB2">
         <v>1.4</v>
@@ -1410,13 +1410,13 @@
         <v>4.5</v>
       </c>
       <c r="J3">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="K3">
-        <v>2.79</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="M3">
         <v>1.53</v>
@@ -1437,10 +1437,10 @@
         <v>2.6</v>
       </c>
       <c r="S3">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="T3">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="U3">
         <v>2.2</v>
@@ -1458,10 +1458,10 @@
         <v>1.63</v>
       </c>
       <c r="Z3">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AB3">
         <v>1.13</v>
@@ -1541,13 +1541,13 @@
         <v>2.3</v>
       </c>
       <c r="J4">
-        <v>4.18</v>
+        <v>4.6</v>
       </c>
       <c r="K4">
-        <v>3.47</v>
+        <v>3.9</v>
       </c>
       <c r="L4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1568,10 +1568,10 @@
         <v>3.6</v>
       </c>
       <c r="S4">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
         <v>1.83</v>
@@ -1589,10 +1589,10 @@
         <v>1.2</v>
       </c>
       <c r="Z4">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AA4">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="AB4">
         <v>1.22</v>
@@ -1672,13 +1672,13 @@
         <v>5.5</v>
       </c>
       <c r="J5">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="K5">
-        <v>4.03</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>4.65</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>1.25</v>
@@ -1699,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="S5">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="T5">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="U5">
         <v>1.6</v>
@@ -1720,7 +1720,7 @@
         <v>2.65</v>
       </c>
       <c r="Z5">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1803,13 +1803,13 @@
         <v>2.9</v>
       </c>
       <c r="J6">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M6">
         <v>1.36</v>
@@ -1830,10 +1830,10 @@
         <v>3.1</v>
       </c>
       <c r="S6">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="T6">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="U6">
         <v>1.73</v>
@@ -1854,7 +1854,7 @@
         <v>1.07</v>
       </c>
       <c r="AA6">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AB6">
         <v>1.43</v>
@@ -1866,43 +1866,43 @@
         <v>2.95</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1934,13 +1934,13 @@
         <v>3.75</v>
       </c>
       <c r="J7">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L7">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1961,10 +1961,10 @@
         <v>3.2</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T7">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="U7">
         <v>1.75</v>
@@ -1982,10 +1982,10 @@
         <v>1.6</v>
       </c>
       <c r="Z7">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AA7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>1.34</v>
@@ -1997,43 +1997,43 @@
         <v>2.41</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2065,13 +2065,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="K8">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -2092,10 +2092,10 @@
         <v>3.1</v>
       </c>
       <c r="S8">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="U8">
         <v>1.75</v>
@@ -2113,10 +2113,10 @@
         <v>1.53</v>
       </c>
       <c r="Z8">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AA8">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AB8">
         <v>1.32</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2">
         <v>45380</v>
@@ -2178,7 +2178,7 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>91</v>
@@ -2187,120 +2187,120 @@
         <v>172</v>
       </c>
       <c r="G9">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="I9">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
-        <v>1.71</v>
+        <v>3.3</v>
       </c>
       <c r="K9">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="M9">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="N9">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="R9">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="S9">
-        <v>1.86</v>
+        <v>2.6</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="U9">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V9">
+        <v>1.67</v>
+      </c>
+      <c r="W9">
+        <v>1.6</v>
+      </c>
+      <c r="X9">
+        <v>1.33</v>
+      </c>
+      <c r="Y9">
+        <v>1.35</v>
+      </c>
+      <c r="Z9">
+        <v>1.15</v>
+      </c>
+      <c r="AA9">
+        <v>1.25</v>
+      </c>
+      <c r="AB9">
+        <v>1.41</v>
+      </c>
+      <c r="AC9">
+        <v>1.13</v>
+      </c>
+      <c r="AD9">
+        <v>2.54</v>
+      </c>
+      <c r="AE9">
+        <v>2.2</v>
+      </c>
+      <c r="AF9">
+        <v>8</v>
+      </c>
+      <c r="AG9">
         <v>1.91</v>
       </c>
-      <c r="W9">
-        <v>1.14</v>
-      </c>
-      <c r="X9">
+      <c r="AH9">
         <v>1.22</v>
       </c>
-      <c r="Y9">
-        <v>2.05</v>
-      </c>
-      <c r="Z9">
-        <v>1.77</v>
-      </c>
-      <c r="AA9">
-        <v>0.92</v>
-      </c>
-      <c r="AB9">
-        <v>1.62</v>
-      </c>
-      <c r="AC9">
-        <v>1.31</v>
-      </c>
-      <c r="AD9">
-        <v>2.93</v>
-      </c>
-      <c r="AE9">
+      <c r="AI9">
+        <v>3.75</v>
+      </c>
+      <c r="AJ9">
         <v>1.41</v>
       </c>
-      <c r="AF9">
-        <v>8.9</v>
-      </c>
-      <c r="AG9">
-        <v>3.38</v>
-      </c>
-      <c r="AH9">
-        <v>1.34</v>
-      </c>
-      <c r="AI9">
+      <c r="AK9">
+        <v>2.63</v>
+      </c>
+      <c r="AL9">
+        <v>1.72</v>
+      </c>
+      <c r="AM9">
+        <v>1.98</v>
+      </c>
+      <c r="AN9">
+        <v>2.18</v>
+      </c>
+      <c r="AO9">
+        <v>1.6</v>
+      </c>
+      <c r="AP9">
         <v>2.88</v>
       </c>
-      <c r="AJ9">
-        <v>1.62</v>
-      </c>
-      <c r="AK9">
-        <v>2.1</v>
-      </c>
-      <c r="AL9">
-        <v>2.05</v>
-      </c>
-      <c r="AM9">
-        <v>1.65</v>
-      </c>
-      <c r="AN9">
-        <v>2.75</v>
-      </c>
-      <c r="AO9">
-        <v>1.37</v>
-      </c>
-      <c r="AP9">
-        <v>3.86</v>
-      </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>45380</v>
@@ -2309,7 +2309,7 @@
         <v>66</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>92</v>
@@ -2318,115 +2318,115 @@
         <v>173</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="H10">
+        <v>2.24</v>
+      </c>
+      <c r="I10">
+        <v>5.3</v>
+      </c>
+      <c r="J10">
+        <v>1.7</v>
+      </c>
+      <c r="K10">
+        <v>3.4</v>
+      </c>
+      <c r="L10">
+        <v>4.2</v>
+      </c>
+      <c r="M10">
+        <v>1.36</v>
+      </c>
+      <c r="N10">
+        <v>2.85</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>1.28</v>
+      </c>
+      <c r="R10">
+        <v>3.4</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
+        <v>1.7</v>
+      </c>
+      <c r="U10">
+        <v>1.73</v>
+      </c>
+      <c r="V10">
         <v>1.91</v>
       </c>
-      <c r="I10">
-        <v>3.2</v>
-      </c>
-      <c r="J10">
-        <v>2.95</v>
-      </c>
-      <c r="K10">
-        <v>2.98</v>
-      </c>
-      <c r="L10">
-        <v>2.34</v>
-      </c>
-      <c r="M10">
-        <v>1.57</v>
-      </c>
-      <c r="N10">
-        <v>2.25</v>
-      </c>
-      <c r="O10">
-        <v>1.11</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>1.52</v>
-      </c>
-      <c r="R10">
-        <v>2.55</v>
-      </c>
-      <c r="S10">
-        <v>2.48</v>
-      </c>
-      <c r="T10">
-        <v>1.5</v>
-      </c>
-      <c r="U10">
+      <c r="W10">
+        <v>1.14</v>
+      </c>
+      <c r="X10">
+        <v>1.22</v>
+      </c>
+      <c r="Y10">
+        <v>2.05</v>
+      </c>
+      <c r="Z10">
+        <v>1.86</v>
+      </c>
+      <c r="AA10">
+        <v>0.86</v>
+      </c>
+      <c r="AB10">
+        <v>1.62</v>
+      </c>
+      <c r="AC10">
+        <v>1.31</v>
+      </c>
+      <c r="AD10">
+        <v>2.93</v>
+      </c>
+      <c r="AE10">
+        <v>1.41</v>
+      </c>
+      <c r="AF10">
+        <v>8.9</v>
+      </c>
+      <c r="AG10">
+        <v>3.38</v>
+      </c>
+      <c r="AH10">
+        <v>1.34</v>
+      </c>
+      <c r="AI10">
+        <v>2.88</v>
+      </c>
+      <c r="AJ10">
+        <v>1.62</v>
+      </c>
+      <c r="AK10">
         <v>2.1</v>
       </c>
-      <c r="V10">
-        <v>1.67</v>
-      </c>
-      <c r="W10">
-        <v>1.6</v>
-      </c>
-      <c r="X10">
-        <v>1.33</v>
-      </c>
-      <c r="Y10">
-        <v>1.35</v>
-      </c>
-      <c r="Z10">
-        <v>1.16</v>
-      </c>
-      <c r="AA10">
-        <v>1.26</v>
-      </c>
-      <c r="AB10">
-        <v>1.41</v>
-      </c>
-      <c r="AC10">
-        <v>1.13</v>
-      </c>
-      <c r="AD10">
-        <v>2.54</v>
-      </c>
-      <c r="AE10">
-        <v>2.2</v>
-      </c>
-      <c r="AF10">
-        <v>8</v>
-      </c>
-      <c r="AG10">
-        <v>1.91</v>
-      </c>
-      <c r="AH10">
-        <v>1.22</v>
-      </c>
-      <c r="AI10">
-        <v>3.75</v>
-      </c>
-      <c r="AJ10">
-        <v>1.41</v>
-      </c>
-      <c r="AK10">
-        <v>2.63</v>
-      </c>
       <c r="AL10">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="AM10">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="AN10">
-        <v>2.18</v>
+        <v>2.75</v>
       </c>
       <c r="AO10">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AP10">
-        <v>2.88</v>
+        <v>3.86</v>
       </c>
       <c r="AQ10">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2458,13 +2458,13 @@
         <v>5.5</v>
       </c>
       <c r="J11">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="K11">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>1.37</v>
@@ -2485,10 +2485,10 @@
         <v>3.4</v>
       </c>
       <c r="S11">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -2506,10 +2506,10 @@
         <v>2.4</v>
       </c>
       <c r="Z11">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB11">
         <v>1.74</v>
@@ -2589,13 +2589,13 @@
         <v>2.88</v>
       </c>
       <c r="J12">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="M12">
         <v>1.41</v>
@@ -2616,10 +2616,10 @@
         <v>3.5</v>
       </c>
       <c r="S12">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="U12">
         <v>1.72</v>
@@ -2637,10 +2637,10 @@
         <v>1.3</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AA12">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AB12">
         <v>1.52</v>
@@ -2720,13 +2720,13 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="K13">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
         <v>1.5</v>
@@ -2747,10 +2747,10 @@
         <v>2.65</v>
       </c>
       <c r="S13">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="T13">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U13">
         <v>2.1</v>
@@ -2768,7 +2768,7 @@
         <v>1.87</v>
       </c>
       <c r="Z13">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AA13">
         <v>0.92</v>
@@ -2899,10 +2899,10 @@
         <v>1.4</v>
       </c>
       <c r="Z14">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AA14">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AB14">
         <v>1.17</v>
@@ -2982,13 +2982,13 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K15">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="L15">
-        <v>5.22</v>
+        <v>5.25</v>
       </c>
       <c r="M15">
         <v>1.36</v>
@@ -3009,10 +3009,10 @@
         <v>3.55</v>
       </c>
       <c r="S15">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U15">
         <v>1.91</v>
@@ -3030,10 +3030,10 @@
         <v>2.4</v>
       </c>
       <c r="Z15">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA15">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AB15">
         <v>1.61</v>
@@ -3113,13 +3113,13 @@
         <v>3.6</v>
       </c>
       <c r="J16">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="K16">
-        <v>3.33</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
         <v>1.33</v>
@@ -3140,10 +3140,10 @@
         <v>3.95</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T16">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="U16">
         <v>1.57</v>
@@ -3161,10 +3161,10 @@
         <v>1.67</v>
       </c>
       <c r="Z16">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AA16">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AB16">
         <v>1.58</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>45380</v>
@@ -3235,120 +3235,120 @@
         <v>180</v>
       </c>
       <c r="G17">
+        <v>2.63</v>
+      </c>
+      <c r="H17">
+        <v>2.2</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>1.95</v>
+      </c>
+      <c r="K17">
+        <v>3.5</v>
+      </c>
+      <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>1.4</v>
+      </c>
+      <c r="N17">
         <v>2.75</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>4.5</v>
-      </c>
-      <c r="J17">
-        <v>2.02</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>3.41</v>
-      </c>
-      <c r="M17">
-        <v>1.5</v>
-      </c>
-      <c r="N17">
-        <v>2.5</v>
       </c>
       <c r="O17">
         <v>1.05</v>
       </c>
       <c r="P17">
-        <v>6.95</v>
+        <v>9</v>
       </c>
       <c r="Q17">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="R17">
-        <v>2.57</v>
+        <v>3.45</v>
       </c>
       <c r="S17">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="T17">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="U17">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="V17">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W17">
+        <v>1.28</v>
+      </c>
+      <c r="X17">
         <v>1.25</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
+        <v>1.77</v>
+      </c>
+      <c r="Z17">
+        <v>1.38</v>
+      </c>
+      <c r="AA17">
+        <v>0.71</v>
+      </c>
+      <c r="AB17">
+        <v>1.43</v>
+      </c>
+      <c r="AC17">
         <v>1.28</v>
       </c>
-      <c r="Y17">
-        <v>1.83</v>
-      </c>
-      <c r="Z17">
-        <v>1.7</v>
-      </c>
-      <c r="AA17">
-        <v>1.5</v>
-      </c>
-      <c r="AB17">
-        <v>1.37</v>
-      </c>
-      <c r="AC17">
-        <v>1.33</v>
-      </c>
       <c r="AD17">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="AE17">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AF17">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG17">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="AH17">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AI17">
-        <v>3.35</v>
+        <v>4.75</v>
       </c>
       <c r="AJ17">
+        <v>1.23</v>
+      </c>
+      <c r="AK17">
+        <v>3.56</v>
+      </c>
+      <c r="AL17">
+        <v>1.51</v>
+      </c>
+      <c r="AM17">
+        <v>2.37</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>1.8</v>
+      </c>
+      <c r="AP17">
+        <v>2.45</v>
+      </c>
+      <c r="AQ17">
         <v>1.49</v>
-      </c>
-      <c r="AK17">
-        <v>2.4</v>
-      </c>
-      <c r="AL17">
-        <v>1.92</v>
-      </c>
-      <c r="AM17">
-        <v>1.88</v>
-      </c>
-      <c r="AN17">
-        <v>2.38</v>
-      </c>
-      <c r="AO17">
-        <v>1.5</v>
-      </c>
-      <c r="AP17">
-        <v>3.2</v>
-      </c>
-      <c r="AQ17">
-        <v>1.29</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
         <v>45380</v>
@@ -3366,52 +3366,52 @@
         <v>181</v>
       </c>
       <c r="G18">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I18">
         <v>4</v>
       </c>
       <c r="J18">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="K18">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
+        <v>3.3</v>
+      </c>
+      <c r="M18">
+        <v>1.44</v>
+      </c>
+      <c r="N18">
+        <v>2.63</v>
+      </c>
+      <c r="O18">
+        <v>1.02</v>
+      </c>
+      <c r="P18">
+        <v>8.6</v>
+      </c>
+      <c r="Q18">
+        <v>1.29</v>
+      </c>
+      <c r="R18">
         <v>3.15</v>
       </c>
-      <c r="M18">
-        <v>1.4</v>
-      </c>
-      <c r="N18">
-        <v>2.75</v>
-      </c>
-      <c r="O18">
-        <v>1.05</v>
-      </c>
-      <c r="P18">
-        <v>9</v>
-      </c>
-      <c r="Q18">
-        <v>1.3</v>
-      </c>
-      <c r="R18">
-        <v>3.45</v>
-      </c>
       <c r="S18">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="T18">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="U18">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>1.28</v>
@@ -3420,61 +3420,61 @@
         <v>1.25</v>
       </c>
       <c r="Y18">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Z18">
-        <v>1.3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA18">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
+        <v>1.35</v>
+      </c>
+      <c r="AC18">
+        <v>1.03</v>
+      </c>
+      <c r="AD18">
+        <v>2.38</v>
+      </c>
+      <c r="AE18">
+        <v>1.64</v>
+      </c>
+      <c r="AF18">
+        <v>7.5</v>
+      </c>
+      <c r="AG18">
+        <v>2.74</v>
+      </c>
+      <c r="AH18">
+        <v>1.18</v>
+      </c>
+      <c r="AI18">
+        <v>4.25</v>
+      </c>
+      <c r="AJ18">
+        <v>1.34</v>
+      </c>
+      <c r="AK18">
+        <v>2.95</v>
+      </c>
+      <c r="AL18">
+        <v>1.6</v>
+      </c>
+      <c r="AM18">
+        <v>2.17</v>
+      </c>
+      <c r="AN18">
+        <v>1.98</v>
+      </c>
+      <c r="AO18">
+        <v>1.72</v>
+      </c>
+      <c r="AP18">
+        <v>2.6</v>
+      </c>
+      <c r="AQ18">
         <v>1.43</v>
-      </c>
-      <c r="AC18">
-        <v>1.28</v>
-      </c>
-      <c r="AD18">
-        <v>2.71</v>
-      </c>
-      <c r="AE18">
-        <v>1.75</v>
-      </c>
-      <c r="AF18">
-        <v>8.5</v>
-      </c>
-      <c r="AG18">
-        <v>2.41</v>
-      </c>
-      <c r="AH18">
-        <v>1.15</v>
-      </c>
-      <c r="AI18">
-        <v>4.75</v>
-      </c>
-      <c r="AJ18">
-        <v>1.23</v>
-      </c>
-      <c r="AK18">
-        <v>3.56</v>
-      </c>
-      <c r="AL18">
-        <v>1.51</v>
-      </c>
-      <c r="AM18">
-        <v>2.37</v>
-      </c>
-      <c r="AN18">
-        <v>2</v>
-      </c>
-      <c r="AO18">
-        <v>1.8</v>
-      </c>
-      <c r="AP18">
-        <v>2.45</v>
-      </c>
-      <c r="AQ18">
-        <v>1.49</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3506,13 +3506,13 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="K19">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="L19">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
         <v>1.33</v>
@@ -3536,7 +3536,7 @@
         <v>1.7</v>
       </c>
       <c r="T19">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U19">
         <v>1.67</v>
@@ -3554,10 +3554,10 @@
         <v>1.83</v>
       </c>
       <c r="Z19">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AA19">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AB19">
         <v>1.48</v>
@@ -3637,13 +3637,13 @@
         <v>3.6</v>
       </c>
       <c r="J20">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="K20">
-        <v>3.26</v>
+        <v>3.7</v>
       </c>
       <c r="L20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>1.33</v>
@@ -3664,10 +3664,10 @@
         <v>3.85</v>
       </c>
       <c r="S20">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U20">
         <v>1.62</v>
@@ -3685,10 +3685,10 @@
         <v>1.65</v>
       </c>
       <c r="Z20">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AA20">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <v>1.52</v>
@@ -3768,13 +3768,13 @@
         <v>2.25</v>
       </c>
       <c r="J21">
-        <v>4.63</v>
+        <v>4.33</v>
       </c>
       <c r="K21">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="L21">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="M21">
         <v>1.36</v>
@@ -3795,10 +3795,10 @@
         <v>3.65</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U21">
         <v>1.83</v>
@@ -3816,10 +3816,10 @@
         <v>1.15</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AA21">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AB21">
         <v>1.3</v>
@@ -3890,115 +3890,115 @@
         <v>185</v>
       </c>
       <c r="G22">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="H22">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I22">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J22">
-        <v>2.49</v>
+        <v>1.95</v>
       </c>
       <c r="K22">
-        <v>3.14</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
-        <v>2.49</v>
+        <v>3.8</v>
       </c>
       <c r="M22">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O22">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P22">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="Q22">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="R22">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
       <c r="S22">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="U22">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="X22">
         <v>1.25</v>
       </c>
       <c r="Y22">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="Z22">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB22">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AC22">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AD22">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AE22">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="AF22">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG22">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="AH22">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AI22">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AJ22">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AK22">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="AL22">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AM22">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="AN22">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="AO22">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="AP22">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="AQ22">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4030,13 +4030,13 @@
         <v>4</v>
       </c>
       <c r="J23">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L23">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
         <v>1.33</v>
@@ -4057,10 +4057,10 @@
         <v>3.9</v>
       </c>
       <c r="S23">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T23">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="U23">
         <v>1.62</v>
@@ -4078,10 +4078,10 @@
         <v>1.8</v>
       </c>
       <c r="Z23">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AA23">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <v>1.56</v>
@@ -4152,79 +4152,79 @@
         <v>187</v>
       </c>
       <c r="G24">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H24">
+        <v>2.6</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
         <v>2.3</v>
       </c>
-      <c r="I24">
-        <v>3.4</v>
-      </c>
-      <c r="J24">
-        <v>2.22</v>
-      </c>
       <c r="K24">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="M24">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P24">
-        <v>12.1</v>
+        <v>17</v>
       </c>
       <c r="Q24">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="R24">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="S24">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="V24">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="W24">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X24">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y24">
+        <v>1.6</v>
+      </c>
+      <c r="Z24">
         <v>1.62</v>
       </c>
-      <c r="Z24">
-        <v>2.21</v>
-      </c>
       <c r="AA24">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>1.86</v>
+        <v>1.46</v>
       </c>
       <c r="AC24">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AD24">
-        <v>3.49</v>
+        <v>2.87</v>
       </c>
       <c r="AE24">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AF24">
         <v>8</v>
@@ -4233,39 +4233,39 @@
         <v>2.1</v>
       </c>
       <c r="AH24">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AI24">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AJ24">
+        <v>1.36</v>
+      </c>
+      <c r="AK24">
+        <v>2.9</v>
+      </c>
+      <c r="AL24">
+        <v>1.67</v>
+      </c>
+      <c r="AM24">
+        <v>2.07</v>
+      </c>
+      <c r="AN24">
+        <v>2.1</v>
+      </c>
+      <c r="AO24">
+        <v>1.65</v>
+      </c>
+      <c r="AP24">
+        <v>2.77</v>
+      </c>
+      <c r="AQ24">
         <v>1.39</v>
-      </c>
-      <c r="AK24">
-        <v>2.77</v>
-      </c>
-      <c r="AL24">
-        <v>1.73</v>
-      </c>
-      <c r="AM24">
-        <v>1.99</v>
-      </c>
-      <c r="AN24">
-        <v>2.2</v>
-      </c>
-      <c r="AO24">
-        <v>1.6</v>
-      </c>
-      <c r="AP24">
-        <v>2.95</v>
-      </c>
-      <c r="AQ24">
-        <v>1.35</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
         <v>45380</v>
@@ -4283,115 +4283,115 @@
         <v>188</v>
       </c>
       <c r="G25">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="H25">
+        <v>2.3</v>
+      </c>
+      <c r="I25">
+        <v>3.4</v>
+      </c>
+      <c r="J25">
         <v>2.38</v>
       </c>
-      <c r="I25">
-        <v>5.5</v>
-      </c>
-      <c r="J25">
-        <v>1.46</v>
-      </c>
       <c r="K25">
-        <v>3.93</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>5.4</v>
+        <v>2.88</v>
       </c>
       <c r="M25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N25">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O25">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P25">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="Q25">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="R25">
-        <v>3.92</v>
+        <v>4.2</v>
       </c>
       <c r="S25">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T25">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V25">
+        <v>2.38</v>
+      </c>
+      <c r="W25">
+        <v>1.44</v>
+      </c>
+      <c r="X25">
+        <v>1.22</v>
+      </c>
+      <c r="Y25">
+        <v>1.62</v>
+      </c>
+      <c r="Z25">
+        <v>2.25</v>
+      </c>
+      <c r="AA25">
+        <v>1.71</v>
+      </c>
+      <c r="AB25">
+        <v>1.86</v>
+      </c>
+      <c r="AC25">
+        <v>1.63</v>
+      </c>
+      <c r="AD25">
+        <v>3.49</v>
+      </c>
+      <c r="AE25">
         <v>1.95</v>
       </c>
-      <c r="W25">
-        <v>1.12</v>
-      </c>
-      <c r="X25">
-        <v>1.17</v>
-      </c>
-      <c r="Y25">
-        <v>2.55</v>
-      </c>
-      <c r="Z25">
+      <c r="AF25">
+        <v>8</v>
+      </c>
+      <c r="AG25">
+        <v>2.1</v>
+      </c>
+      <c r="AH25">
+        <v>1.2</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>1.39</v>
+      </c>
+      <c r="AK25">
+        <v>2.77</v>
+      </c>
+      <c r="AL25">
+        <v>1.73</v>
+      </c>
+      <c r="AM25">
+        <v>1.99</v>
+      </c>
+      <c r="AN25">
+        <v>2.2</v>
+      </c>
+      <c r="AO25">
         <v>1.6</v>
       </c>
-      <c r="AA25">
-        <v>0.68</v>
-      </c>
-      <c r="AB25">
-        <v>1.47</v>
-      </c>
-      <c r="AC25">
-        <v>1.08</v>
-      </c>
-      <c r="AD25">
-        <v>2.55</v>
-      </c>
-      <c r="AE25">
-        <v>1.41</v>
-      </c>
-      <c r="AF25">
-        <v>9</v>
-      </c>
-      <c r="AG25">
-        <v>3.49</v>
-      </c>
-      <c r="AH25">
-        <v>1.25</v>
-      </c>
-      <c r="AI25">
-        <v>3.5</v>
-      </c>
-      <c r="AJ25">
-        <v>1.47</v>
-      </c>
-      <c r="AK25">
-        <v>2.48</v>
-      </c>
-      <c r="AL25">
-        <v>1.82</v>
-      </c>
-      <c r="AM25">
-        <v>1.98</v>
-      </c>
-      <c r="AN25">
-        <v>2.3</v>
-      </c>
-      <c r="AO25">
-        <v>1.53</v>
-      </c>
       <c r="AP25">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AQ25">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4414,115 +4414,115 @@
         <v>189</v>
       </c>
       <c r="G26">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="H26">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I26">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J26">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="K26">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>3.79</v>
+        <v>5.5</v>
       </c>
       <c r="M26">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O26">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P26">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="Q26">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="R26">
-        <v>2.93</v>
+        <v>3.92</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="T26">
+        <v>2.02</v>
+      </c>
+      <c r="U26">
         <v>1.8</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="V26">
-        <v>1.8</v>
-      </c>
       <c r="W26">
+        <v>1.12</v>
+      </c>
+      <c r="X26">
+        <v>1.17</v>
+      </c>
+      <c r="Y26">
+        <v>2.55</v>
+      </c>
+      <c r="Z26">
+        <v>1.52</v>
+      </c>
+      <c r="AA26">
+        <v>0.8</v>
+      </c>
+      <c r="AB26">
+        <v>1.47</v>
+      </c>
+      <c r="AC26">
+        <v>1.08</v>
+      </c>
+      <c r="AD26">
+        <v>2.55</v>
+      </c>
+      <c r="AE26">
+        <v>1.41</v>
+      </c>
+      <c r="AF26">
+        <v>9</v>
+      </c>
+      <c r="AG26">
+        <v>3.49</v>
+      </c>
+      <c r="AH26">
         <v>1.25</v>
       </c>
-      <c r="X26">
-        <v>1.25</v>
-      </c>
-      <c r="Y26">
-        <v>1.87</v>
-      </c>
-      <c r="Z26">
-        <v>2</v>
-      </c>
-      <c r="AA26">
-        <v>1.1</v>
-      </c>
-      <c r="AB26">
-        <v>1.45</v>
-      </c>
-      <c r="AC26">
-        <v>1.26</v>
-      </c>
-      <c r="AD26">
-        <v>2.71</v>
-      </c>
-      <c r="AE26">
-        <v>1.64</v>
-      </c>
-      <c r="AF26">
-        <v>8.5</v>
-      </c>
-      <c r="AG26">
-        <v>2.66</v>
-      </c>
-      <c r="AH26">
-        <v>1.22</v>
-      </c>
       <c r="AI26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ26">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AK26">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="AL26">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="AM26">
         <v>1.98</v>
       </c>
       <c r="AN26">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="AO26">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AP26">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="AQ26">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4545,115 +4545,115 @@
         <v>190</v>
       </c>
       <c r="G27">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="H27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="J27">
-        <v>1.93</v>
+        <v>2.63</v>
       </c>
       <c r="K27">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
-        <v>3.23</v>
+        <v>2.6</v>
       </c>
       <c r="M27">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="N27">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P27">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q27">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="R27">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="S27">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T27">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W27">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="X27">
         <v>1.25</v>
       </c>
       <c r="Y27">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>0.85</v>
+        <v>1.24</v>
       </c>
       <c r="AA27">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AC27">
-        <v>1.03</v>
+        <v>1.32</v>
       </c>
       <c r="AD27">
-        <v>2.38</v>
+        <v>2.69</v>
       </c>
       <c r="AE27">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="AF27">
         <v>7.5</v>
       </c>
       <c r="AG27">
-        <v>2.74</v>
+        <v>2.2</v>
       </c>
       <c r="AH27">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AI27">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="AJ27">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AK27">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="AL27">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AM27">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="AN27">
+        <v>1.72</v>
+      </c>
+      <c r="AO27">
         <v>1.98</v>
       </c>
-      <c r="AO27">
-        <v>1.72</v>
-      </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4685,13 +4685,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="K28">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="L28">
-        <v>3.21</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
         <v>1.44</v>
@@ -4712,10 +4712,10 @@
         <v>3.1</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T28">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U28">
         <v>1.83</v>
@@ -4733,10 +4733,10 @@
         <v>1.73</v>
       </c>
       <c r="Z28">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AA28">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AB28">
         <v>1.47</v>
@@ -4816,13 +4816,13 @@
         <v>4.33</v>
       </c>
       <c r="J29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>3.01</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="M29">
         <v>1.44</v>
@@ -4843,10 +4843,10 @@
         <v>3</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U29">
         <v>1.91</v>
@@ -4864,10 +4864,10 @@
         <v>1.77</v>
       </c>
       <c r="Z29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA29">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AB29">
         <v>1.36</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2">
         <v>45380</v>
@@ -4929,7 +4929,7 @@
         <v>70</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
         <v>112</v>
@@ -4938,115 +4938,115 @@
         <v>193</v>
       </c>
       <c r="G30">
+        <v>2.1</v>
+      </c>
+      <c r="H30">
+        <v>2.25</v>
+      </c>
+      <c r="I30">
+        <v>6.5</v>
+      </c>
+      <c r="J30">
+        <v>1.5</v>
+      </c>
+      <c r="K30">
+        <v>3.9</v>
+      </c>
+      <c r="L30">
+        <v>5.5</v>
+      </c>
+      <c r="M30">
+        <v>1.4</v>
+      </c>
+      <c r="N30">
         <v>2.75</v>
       </c>
-      <c r="H30">
+      <c r="O30">
+        <v>1.05</v>
+      </c>
+      <c r="P30">
+        <v>11</v>
+      </c>
+      <c r="Q30">
+        <v>1.3</v>
+      </c>
+      <c r="R30">
+        <v>3.6</v>
+      </c>
+      <c r="S30">
+        <v>1.75</v>
+      </c>
+      <c r="T30">
+        <v>1.95</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>1.73</v>
+      </c>
+      <c r="W30">
+        <v>1.11</v>
+      </c>
+      <c r="X30">
+        <v>1.19</v>
+      </c>
+      <c r="Y30">
         <v>2.6</v>
       </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>2.19</v>
-      </c>
-      <c r="K30">
-        <v>3.52</v>
-      </c>
-      <c r="L30">
-        <v>2.45</v>
-      </c>
-      <c r="M30">
-        <v>1.22</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30">
-        <v>1.01</v>
-      </c>
-      <c r="P30">
-        <v>17</v>
-      </c>
-      <c r="Q30">
-        <v>1.08</v>
-      </c>
-      <c r="R30">
-        <v>5.9</v>
-      </c>
-      <c r="S30">
-        <v>1.4</v>
-      </c>
-      <c r="T30">
-        <v>2.73</v>
-      </c>
-      <c r="U30">
-        <v>1.33</v>
-      </c>
-      <c r="V30">
-        <v>3.25</v>
-      </c>
-      <c r="W30">
-        <v>1.5</v>
-      </c>
-      <c r="X30">
+      <c r="Z30">
+        <v>1.7</v>
+      </c>
+      <c r="AA30">
+        <v>0.2</v>
+      </c>
+      <c r="AB30">
+        <v>1.18</v>
+      </c>
+      <c r="AC30">
+        <v>0.89</v>
+      </c>
+      <c r="AD30">
+        <v>2.07</v>
+      </c>
+      <c r="AE30">
+        <v>1.26</v>
+      </c>
+      <c r="AF30">
+        <v>10</v>
+      </c>
+      <c r="AG30">
+        <v>4.64</v>
+      </c>
+      <c r="AH30">
         <v>1.2</v>
       </c>
-      <c r="Y30">
-        <v>1.6</v>
-      </c>
-      <c r="Z30">
-        <v>1.55</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <v>1.46</v>
-      </c>
-      <c r="AC30">
-        <v>1.41</v>
-      </c>
-      <c r="AD30">
-        <v>2.87</v>
-      </c>
-      <c r="AE30">
-        <v>1.91</v>
-      </c>
-      <c r="AF30">
-        <v>8</v>
-      </c>
-      <c r="AG30">
-        <v>2.1</v>
-      </c>
-      <c r="AH30">
-        <v>1.18</v>
-      </c>
       <c r="AI30">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="AJ30">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AK30">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="AL30">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AM30">
         <v>2.07</v>
       </c>
       <c r="AN30">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AO30">
         <v>1.65</v>
       </c>
       <c r="AP30">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AQ30">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -5078,13 +5078,13 @@
         <v>4.33</v>
       </c>
       <c r="J31">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K31">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="L31">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
         <v>1.33</v>
@@ -5105,10 +5105,10 @@
         <v>4.2</v>
       </c>
       <c r="S31">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T31">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="U31">
         <v>1.62</v>
@@ -5126,10 +5126,10 @@
         <v>1.85</v>
       </c>
       <c r="Z31">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA31">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="AB31">
         <v>1.52</v>
@@ -5209,13 +5209,13 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="L32">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M32">
         <v>1.36</v>
@@ -5236,10 +5236,10 @@
         <v>3.6</v>
       </c>
       <c r="S32">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U32">
         <v>1.73</v>
@@ -5257,10 +5257,10 @@
         <v>1.38</v>
       </c>
       <c r="Z32">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AA32">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AB32">
         <v>1.33</v>
@@ -5340,13 +5340,13 @@
         <v>3.4</v>
       </c>
       <c r="J33">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="K33">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="L33">
-        <v>2.51</v>
+        <v>2.62</v>
       </c>
       <c r="M33">
         <v>1.44</v>
@@ -5367,7 +5367,7 @@
         <v>3.04</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
         <v>1.8</v>
@@ -5388,10 +5388,10 @@
         <v>1.53</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA33">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AB33">
         <v>1.49</v>
@@ -5471,13 +5471,13 @@
         <v>4.75</v>
       </c>
       <c r="J34">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="K34">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L34">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
         <v>1.36</v>
@@ -5498,10 +5498,10 @@
         <v>3.5</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="T34">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U34">
         <v>1.8</v>
@@ -5519,10 +5519,10 @@
         <v>2.1</v>
       </c>
       <c r="Z34">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AA34">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <v>1.45</v>
@@ -5602,13 +5602,13 @@
         <v>2.75</v>
       </c>
       <c r="J35">
-        <v>3.36</v>
+        <v>3.6</v>
       </c>
       <c r="K35">
-        <v>3.03</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="M35">
         <v>1.44</v>
@@ -5632,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="T35">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U35">
         <v>1.91</v>
@@ -5650,10 +5650,10 @@
         <v>1.28</v>
       </c>
       <c r="Z35">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AA35">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AB35">
         <v>1.21</v>
@@ -5733,13 +5733,13 @@
         <v>4.33</v>
       </c>
       <c r="J36">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>3.12</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>3.44</v>
+        <v>3.7</v>
       </c>
       <c r="M36">
         <v>1.44</v>
@@ -5760,10 +5760,10 @@
         <v>2.93</v>
       </c>
       <c r="S36">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U36">
         <v>1.91</v>
@@ -5781,10 +5781,10 @@
         <v>1.83</v>
       </c>
       <c r="Z36">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AA36">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AB36">
         <v>1.11</v>
@@ -5864,13 +5864,13 @@
         <v>2.75</v>
       </c>
       <c r="J37">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="K37">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="M37">
         <v>1.4</v>
@@ -5891,7 +5891,7 @@
         <v>3.18</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>1.8</v>
@@ -5912,10 +5912,10 @@
         <v>1.3</v>
       </c>
       <c r="Z37">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AA37">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AB37">
         <v>1.47</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2">
         <v>45380</v>
@@ -5977,7 +5977,7 @@
         <v>70</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>120</v>
@@ -5986,115 +5986,115 @@
         <v>201</v>
       </c>
       <c r="G38">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>1.25</v>
+      </c>
+      <c r="K38">
+        <v>5.5</v>
+      </c>
+      <c r="L38">
+        <v>10.5</v>
+      </c>
+      <c r="M38">
+        <v>1.25</v>
+      </c>
+      <c r="N38">
+        <v>3.75</v>
+      </c>
+      <c r="O38">
+        <v>1.02</v>
+      </c>
+      <c r="P38">
+        <v>19.5</v>
+      </c>
+      <c r="Q38">
+        <v>1.11</v>
+      </c>
+      <c r="R38">
+        <v>5.2</v>
+      </c>
+      <c r="S38">
+        <v>1.55</v>
+      </c>
+      <c r="T38">
+        <v>2.32</v>
+      </c>
+      <c r="U38">
+        <v>1.8</v>
+      </c>
+      <c r="V38">
+        <v>1.95</v>
+      </c>
+      <c r="W38">
+        <v>1.02</v>
+      </c>
+      <c r="X38">
+        <v>1.1</v>
+      </c>
+      <c r="Y38">
         <v>3.6</v>
       </c>
-      <c r="J38">
-        <v>2.49</v>
-      </c>
-      <c r="K38">
-        <v>2.96</v>
-      </c>
-      <c r="L38">
-        <v>2.56</v>
-      </c>
-      <c r="M38">
-        <v>1.5</v>
-      </c>
-      <c r="N38">
-        <v>2.5</v>
-      </c>
-      <c r="O38">
-        <v>1.08</v>
-      </c>
-      <c r="P38">
-        <v>9</v>
-      </c>
-      <c r="Q38">
-        <v>1.42</v>
-      </c>
-      <c r="R38">
-        <v>2.9</v>
-      </c>
-      <c r="S38">
-        <v>2.21</v>
-      </c>
-      <c r="T38">
-        <v>1.62</v>
-      </c>
-      <c r="U38">
-        <v>1.91</v>
-      </c>
-      <c r="V38">
-        <v>1.8</v>
-      </c>
-      <c r="W38">
-        <v>1.44</v>
-      </c>
-      <c r="X38">
-        <v>1.32</v>
-      </c>
-      <c r="Y38">
-        <v>1.47</v>
-      </c>
       <c r="Z38">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AA38">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AB38">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AC38">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="AD38">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AE38">
-        <v>2.2</v>
+        <v>1.26</v>
       </c>
       <c r="AF38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG38">
-        <v>1.91</v>
+        <v>4.64</v>
       </c>
       <c r="AH38">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AI38">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="AJ38">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AK38">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AL38">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AM38">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="AN38">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AP38">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -6126,13 +6126,13 @@
         <v>3.25</v>
       </c>
       <c r="J39">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="K39">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="M39">
         <v>1.44</v>
@@ -6153,10 +6153,10 @@
         <v>2.89</v>
       </c>
       <c r="S39">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T39">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U39">
         <v>1.95</v>
@@ -6174,10 +6174,10 @@
         <v>1.44</v>
       </c>
       <c r="Z39">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AA39">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AB39">
         <v>1.46</v>
@@ -6257,13 +6257,13 @@
         <v>4.33</v>
       </c>
       <c r="J40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="K40">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M40">
         <v>1.4</v>
@@ -6284,7 +6284,7 @@
         <v>3.4</v>
       </c>
       <c r="S40">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="T40">
         <v>1.83</v>
@@ -6305,10 +6305,10 @@
         <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AB40">
         <v>1.56</v>
@@ -6379,115 +6379,115 @@
         <v>204</v>
       </c>
       <c r="G41">
+        <v>3.25</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="H41">
+      <c r="I41">
+        <v>3.6</v>
+      </c>
+      <c r="J41">
+        <v>2.6</v>
+      </c>
+      <c r="K41">
+        <v>3.2</v>
+      </c>
+      <c r="L41">
+        <v>2.7</v>
+      </c>
+      <c r="M41">
+        <v>1.5</v>
+      </c>
+      <c r="N41">
         <v>2.5</v>
       </c>
-      <c r="I41">
-        <v>6</v>
-      </c>
-      <c r="J41">
-        <v>1.43</v>
-      </c>
-      <c r="K41">
-        <v>4.33</v>
-      </c>
-      <c r="L41">
-        <v>5.7</v>
-      </c>
-      <c r="M41">
+      <c r="O41">
+        <v>1.08</v>
+      </c>
+      <c r="P41">
+        <v>9</v>
+      </c>
+      <c r="Q41">
+        <v>1.42</v>
+      </c>
+      <c r="R41">
+        <v>2.9</v>
+      </c>
+      <c r="S41">
+        <v>2.28</v>
+      </c>
+      <c r="T41">
+        <v>1.63</v>
+      </c>
+      <c r="U41">
+        <v>1.91</v>
+      </c>
+      <c r="V41">
+        <v>1.8</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>1.32</v>
+      </c>
+      <c r="Y41">
+        <v>1.47</v>
+      </c>
+      <c r="Z41">
+        <v>1.5</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.51</v>
+      </c>
+      <c r="AD41">
+        <v>2.76</v>
+      </c>
+      <c r="AE41">
+        <v>2.2</v>
+      </c>
+      <c r="AF41">
+        <v>8</v>
+      </c>
+      <c r="AG41">
+        <v>1.91</v>
+      </c>
+      <c r="AH41">
+        <v>1.27</v>
+      </c>
+      <c r="AI41">
+        <v>3.35</v>
+      </c>
+      <c r="AJ41">
+        <v>1.49</v>
+      </c>
+      <c r="AK41">
+        <v>2.4</v>
+      </c>
+      <c r="AL41">
+        <v>1.85</v>
+      </c>
+      <c r="AM41">
+        <v>1.95</v>
+      </c>
+      <c r="AN41">
+        <v>2.38</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>3.2</v>
+      </c>
+      <c r="AQ41">
         <v>1.29</v>
-      </c>
-      <c r="N41">
-        <v>3.5</v>
-      </c>
-      <c r="O41">
-        <v>1.02</v>
-      </c>
-      <c r="P41">
-        <v>17</v>
-      </c>
-      <c r="Q41">
-        <v>1.19</v>
-      </c>
-      <c r="R41">
-        <v>4.75</v>
-      </c>
-      <c r="S41">
-        <v>1.54</v>
-      </c>
-      <c r="T41">
-        <v>2.38</v>
-      </c>
-      <c r="U41">
-        <v>1.73</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>1.12</v>
-      </c>
-      <c r="X41">
-        <v>1.17</v>
-      </c>
-      <c r="Y41">
-        <v>2.65</v>
-      </c>
-      <c r="Z41">
-        <v>2.16</v>
-      </c>
-      <c r="AA41">
-        <v>0.68</v>
-      </c>
-      <c r="AB41">
-        <v>1.56</v>
-      </c>
-      <c r="AC41">
-        <v>1.23</v>
-      </c>
-      <c r="AD41">
-        <v>2.79</v>
-      </c>
-      <c r="AE41">
-        <v>1.26</v>
-      </c>
-      <c r="AF41">
-        <v>10</v>
-      </c>
-      <c r="AG41">
-        <v>4.5</v>
-      </c>
-      <c r="AH41">
-        <v>1.12</v>
-      </c>
-      <c r="AI41">
-        <v>4.9</v>
-      </c>
-      <c r="AJ41">
-        <v>1.29</v>
-      </c>
-      <c r="AK41">
-        <v>3.25</v>
-      </c>
-      <c r="AL41">
-        <v>1.5</v>
-      </c>
-      <c r="AM41">
-        <v>2.35</v>
-      </c>
-      <c r="AN41">
-        <v>1.92</v>
-      </c>
-      <c r="AO41">
-        <v>1.88</v>
-      </c>
-      <c r="AP41">
-        <v>2.35</v>
-      </c>
-      <c r="AQ41">
-        <v>1.52</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -6519,13 +6519,13 @@
         <v>2.5</v>
       </c>
       <c r="J42">
-        <v>4.16</v>
+        <v>3.8</v>
       </c>
       <c r="K42">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L42">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M42">
         <v>1.42</v>
@@ -6546,10 +6546,10 @@
         <v>3</v>
       </c>
       <c r="S42">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="T42">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="U42">
         <v>1.8</v>
@@ -6567,10 +6567,10 @@
         <v>1.22</v>
       </c>
       <c r="Z42">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AB42">
         <v>1.32</v>
@@ -6650,13 +6650,13 @@
         <v>5</v>
       </c>
       <c r="J43">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="K43">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>4.53</v>
+        <v>4.8</v>
       </c>
       <c r="M43">
         <v>1.25</v>
@@ -6677,10 +6677,10 @@
         <v>5</v>
       </c>
       <c r="S43">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="T43">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="U43">
         <v>1.57</v>
@@ -6698,10 +6698,10 @@
         <v>2.45</v>
       </c>
       <c r="Z43">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AA43">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB43">
         <v>1.82</v>
@@ -6781,13 +6781,13 @@
         <v>3.5</v>
       </c>
       <c r="J44">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="K44">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="L44">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="M44">
         <v>1.4</v>
@@ -6808,10 +6808,10 @@
         <v>3.4</v>
       </c>
       <c r="S44">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="T44">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U44">
         <v>1.73</v>
@@ -6829,10 +6829,10 @@
         <v>1.53</v>
       </c>
       <c r="Z44">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AA44">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AB44">
         <v>1.27</v>
@@ -6903,115 +6903,115 @@
         <v>208</v>
       </c>
       <c r="G45">
-        <v>1.73</v>
+        <v>2.75</v>
       </c>
       <c r="H45">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J45">
+        <v>2.05</v>
+      </c>
+      <c r="K45">
+        <v>3.4</v>
+      </c>
+      <c r="L45">
+        <v>3.6</v>
+      </c>
+      <c r="M45">
+        <v>1.5</v>
+      </c>
+      <c r="N45">
+        <v>2.5</v>
+      </c>
+      <c r="O45">
+        <v>1.05</v>
+      </c>
+      <c r="P45">
+        <v>6.95</v>
+      </c>
+      <c r="Q45">
+        <v>1.42</v>
+      </c>
+      <c r="R45">
+        <v>2.57</v>
+      </c>
+      <c r="S45">
+        <v>2.2</v>
+      </c>
+      <c r="T45">
+        <v>1.6</v>
+      </c>
+      <c r="U45">
+        <v>2.05</v>
+      </c>
+      <c r="V45">
+        <v>1.7</v>
+      </c>
+      <c r="W45">
+        <v>1.25</v>
+      </c>
+      <c r="X45">
+        <v>1.28</v>
+      </c>
+      <c r="Y45">
+        <v>1.83</v>
+      </c>
+      <c r="Z45">
+        <v>1.76</v>
+      </c>
+      <c r="AA45">
+        <v>1.43</v>
+      </c>
+      <c r="AB45">
+        <v>1.37</v>
+      </c>
+      <c r="AC45">
+        <v>1.33</v>
+      </c>
+      <c r="AD45">
+        <v>2.7</v>
+      </c>
+      <c r="AE45">
+        <v>1.91</v>
+      </c>
+      <c r="AF45">
+        <v>8</v>
+      </c>
+      <c r="AG45">
+        <v>2.2</v>
+      </c>
+      <c r="AH45">
         <v>1.27</v>
       </c>
-      <c r="K45">
-        <v>4.84</v>
-      </c>
-      <c r="L45">
-        <v>6.76</v>
-      </c>
-      <c r="M45">
-        <v>1.25</v>
-      </c>
-      <c r="N45">
-        <v>3.75</v>
-      </c>
-      <c r="O45">
-        <v>1.02</v>
-      </c>
-      <c r="P45">
-        <v>19.5</v>
-      </c>
-      <c r="Q45">
-        <v>1.11</v>
-      </c>
-      <c r="R45">
-        <v>5.2</v>
-      </c>
-      <c r="S45">
-        <v>1.45</v>
-      </c>
-      <c r="T45">
-        <v>2.56</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>1.02</v>
-      </c>
-      <c r="X45">
-        <v>1.1</v>
-      </c>
-      <c r="Y45">
-        <v>3.6</v>
-      </c>
-      <c r="Z45">
-        <v>1.95</v>
-      </c>
-      <c r="AA45">
-        <v>0.47</v>
-      </c>
-      <c r="AB45">
-        <v>1.6</v>
-      </c>
-      <c r="AC45">
-        <v>1.11</v>
-      </c>
-      <c r="AD45">
-        <v>2.71</v>
-      </c>
-      <c r="AE45">
-        <v>1.26</v>
-      </c>
-      <c r="AF45">
-        <v>10</v>
-      </c>
-      <c r="AG45">
-        <v>4.64</v>
-      </c>
-      <c r="AH45">
-        <v>1.2</v>
-      </c>
       <c r="AI45">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="AJ45">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AK45">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AL45">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="AM45">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="AN45">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="AO45">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -7043,13 +7043,13 @@
         <v>4.33</v>
       </c>
       <c r="J46">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
         <v>1.44</v>
@@ -7070,10 +7070,10 @@
         <v>3</v>
       </c>
       <c r="S46">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T46">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U46">
         <v>1.91</v>
@@ -7091,10 +7091,10 @@
         <v>1.75</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA46">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AB46">
         <v>1.44</v>
@@ -7165,76 +7165,76 @@
         <v>210</v>
       </c>
       <c r="G47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I47">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J47">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K47">
-        <v>3.88</v>
+        <v>4.4</v>
       </c>
       <c r="L47">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O47">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P47">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q47">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="R47">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="S47">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="T47">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="U47">
+        <v>1.73</v>
+      </c>
+      <c r="V47">
         <v>2</v>
       </c>
-      <c r="V47">
-        <v>1.73</v>
-      </c>
       <c r="W47">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X47">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="Y47">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Z47">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="AA47">
-        <v>0.21</v>
+        <v>0.65</v>
       </c>
       <c r="AB47">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="AC47">
-        <v>0.89</v>
+        <v>1.23</v>
       </c>
       <c r="AD47">
-        <v>2.07</v>
+        <v>2.79</v>
       </c>
       <c r="AE47">
         <v>1.26</v>
@@ -7243,42 +7243,42 @@
         <v>10</v>
       </c>
       <c r="AG47">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="AH47">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AI47">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="AJ47">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AK47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AL47">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AM47">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="AN47">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AO47">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="AP47">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
         <v>45380</v>
@@ -7296,120 +7296,120 @@
         <v>211</v>
       </c>
       <c r="G48">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2.42</v>
+      </c>
+      <c r="K48">
+        <v>3.15</v>
+      </c>
+      <c r="L48">
+        <v>3.15</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
         <v>2.2</v>
       </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="J48">
-        <v>1.55</v>
-      </c>
-      <c r="K48">
-        <v>3.6</v>
-      </c>
-      <c r="L48">
-        <v>5.1</v>
-      </c>
-      <c r="M48">
-        <v>1.4</v>
-      </c>
-      <c r="N48">
-        <v>2.75</v>
-      </c>
-      <c r="O48">
-        <v>1.02</v>
-      </c>
-      <c r="P48">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q48">
-        <v>1.3</v>
-      </c>
-      <c r="R48">
-        <v>3.3</v>
-      </c>
-      <c r="S48">
-        <v>2.03</v>
-      </c>
       <c r="T48">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AA48">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AC48">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AD48">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="AE48">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AK48">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AL48">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AM48">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="AN48">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>1.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2">
         <v>45380</v>
@@ -7427,115 +7427,115 @@
         <v>212</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J49">
-        <v>2.32</v>
+        <v>1.61</v>
       </c>
       <c r="K49">
-        <v>3.04</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>2.92</v>
+        <v>5.6</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="S49">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="T49">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z49">
+        <v>1.57</v>
+      </c>
+      <c r="AA49">
+        <v>0.5</v>
+      </c>
+      <c r="AB49">
+        <v>1.44</v>
+      </c>
+      <c r="AC49">
+        <v>1.36</v>
+      </c>
+      <c r="AD49">
+        <v>2.8</v>
+      </c>
+      <c r="AE49">
+        <v>1.49</v>
+      </c>
+      <c r="AF49">
+        <v>10</v>
+      </c>
+      <c r="AG49">
+        <v>2.99</v>
+      </c>
+      <c r="AH49">
+        <v>1.15</v>
+      </c>
+      <c r="AI49">
+        <v>4.75</v>
+      </c>
+      <c r="AJ49">
+        <v>1.29</v>
+      </c>
+      <c r="AK49">
+        <v>3.3</v>
+      </c>
+      <c r="AL49">
+        <v>1.48</v>
+      </c>
+      <c r="AM49">
+        <v>2.58</v>
+      </c>
+      <c r="AN49">
+        <v>1.9</v>
+      </c>
+      <c r="AO49">
+        <v>1.9</v>
+      </c>
+      <c r="AP49">
+        <v>2.24</v>
+      </c>
+      <c r="AQ49">
         <v>1.62</v>
-      </c>
-      <c r="AA49">
-        <v>0.85</v>
-      </c>
-      <c r="AB49">
-        <v>1.15</v>
-      </c>
-      <c r="AC49">
-        <v>1.17</v>
-      </c>
-      <c r="AD49">
-        <v>2.32</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -7567,13 +7567,13 @@
         <v>3.1</v>
       </c>
       <c r="J50">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="K50">
-        <v>2.71</v>
+        <v>3.05</v>
       </c>
       <c r="L50">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M50">
         <v>1.56</v>
@@ -7591,7 +7591,7 @@
         <v>1.48</v>
       </c>
       <c r="R50">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="S50">
         <v>2.59</v>
@@ -7615,10 +7615,10 @@
         <v>1.3</v>
       </c>
       <c r="Z50">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AA50">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AB50">
         <v>1.34</v>
@@ -7698,13 +7698,13 @@
         <v>6</v>
       </c>
       <c r="J51">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="K51">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L51">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="M51">
         <v>1.31</v>
@@ -7725,10 +7725,10 @@
         <v>4.2</v>
       </c>
       <c r="S51">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="T51">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -7746,10 +7746,10 @@
         <v>2.9</v>
       </c>
       <c r="Z51">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AA51">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AB51">
         <v>1.78</v>
@@ -7829,13 +7829,13 @@
         <v>3.1</v>
       </c>
       <c r="J52">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="K52">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L52">
-        <v>2.29</v>
+        <v>2.43</v>
       </c>
       <c r="M52">
         <v>1.51</v>
@@ -7856,10 +7856,10 @@
         <v>2.7</v>
       </c>
       <c r="S52">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="T52">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U52">
         <v>1.95</v>
@@ -7877,10 +7877,10 @@
         <v>1.3</v>
       </c>
       <c r="Z52">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AA52">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AB52">
         <v>1.19</v>
@@ -7951,115 +7951,115 @@
         <v>216</v>
       </c>
       <c r="G53">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="H53">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="I53">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="J53">
-        <v>1.37</v>
+        <v>2.12</v>
       </c>
       <c r="K53">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L53">
-        <v>7.85</v>
+        <v>3.15</v>
       </c>
       <c r="M53">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N53">
         <v>3</v>
       </c>
       <c r="O53">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P53">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="Q53">
+        <v>1.29</v>
+      </c>
+      <c r="R53">
+        <v>3.5</v>
+      </c>
+      <c r="S53">
+        <v>1.89</v>
+      </c>
+      <c r="T53">
+        <v>1.89</v>
+      </c>
+      <c r="U53">
+        <v>1.7</v>
+      </c>
+      <c r="V53">
+        <v>2.05</v>
+      </c>
+      <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
         <v>1.25</v>
       </c>
-      <c r="R53">
-        <v>3.88</v>
-      </c>
-      <c r="S53">
-        <v>1.77</v>
-      </c>
-      <c r="T53">
-        <v>2.03</v>
-      </c>
-      <c r="U53">
-        <v>2.05</v>
-      </c>
-      <c r="V53">
-        <v>1.65</v>
-      </c>
-      <c r="W53">
-        <v>1.09</v>
-      </c>
-      <c r="X53">
-        <v>1.17</v>
-      </c>
       <c r="Y53">
-        <v>2.85</v>
+        <v>1.62</v>
       </c>
       <c r="Z53">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="AA53">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="AB53">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AC53">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AD53">
-        <v>3.07</v>
+        <v>2.67</v>
       </c>
       <c r="AE53">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="AF53">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AG53">
-        <v>8.75</v>
+        <v>2.52</v>
       </c>
       <c r="AH53">
         <v>1.31</v>
       </c>
       <c r="AI53">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AJ53">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AK53">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AL53">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="AM53">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AN53">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AO53">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -8139,10 +8139,10 @@
         <v>1.36</v>
       </c>
       <c r="Z54">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AA54">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>1.43</v>
@@ -8222,13 +8222,13 @@
         <v>7</v>
       </c>
       <c r="J55">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="K55">
-        <v>3.28</v>
+        <v>3.85</v>
       </c>
       <c r="L55">
-        <v>5.42</v>
+        <v>6.6</v>
       </c>
       <c r="M55">
         <v>1.53</v>
@@ -8249,10 +8249,10 @@
         <v>2.65</v>
       </c>
       <c r="S55">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U55">
         <v>2.63</v>
@@ -8270,10 +8270,10 @@
         <v>2.35</v>
       </c>
       <c r="Z55">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AB55">
         <v>2.04</v>
@@ -8344,115 +8344,115 @@
         <v>219</v>
       </c>
       <c r="G56">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="H56">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="I56">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="J56">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="K56">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L56">
-        <v>3.62</v>
+        <v>7.8</v>
       </c>
       <c r="M56">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N56">
         <v>3</v>
       </c>
       <c r="O56">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P56">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Q56">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R56">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="S56">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U56">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="V56">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="W56">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="X56">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Y56">
-        <v>1.62</v>
+        <v>2.85</v>
       </c>
       <c r="Z56">
-        <v>1.08</v>
+        <v>1.93</v>
       </c>
       <c r="AA56">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AC56">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AD56">
-        <v>2.67</v>
+        <v>3.07</v>
       </c>
       <c r="AE56">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="AF56">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AG56">
-        <v>2.52</v>
+        <v>8.75</v>
       </c>
       <c r="AH56">
         <v>1.31</v>
       </c>
       <c r="AI56">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AJ56">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AK56">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AL56">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="AM56">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AN56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AO56">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP56">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="AQ56">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -8475,22 +8475,22 @@
         <v>220</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H57">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K57">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L57">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="M57">
         <v>1.4</v>
@@ -8511,16 +8511,16 @@
         <v>3.5</v>
       </c>
       <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
         <v>1.85</v>
       </c>
-      <c r="T57">
-        <v>1.95</v>
-      </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V57">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W57">
         <v>1.09</v>
@@ -8532,10 +8532,10 @@
         <v>2.4</v>
       </c>
       <c r="Z57">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AA57">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AB57">
         <v>1.57</v>
@@ -8547,13 +8547,13 @@
         <v>2.79</v>
       </c>
       <c r="AE57">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AF57">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG57">
-        <v>3.64</v>
+        <v>3.68</v>
       </c>
       <c r="AH57">
         <v>1.28</v>
@@ -8606,22 +8606,22 @@
         <v>221</v>
       </c>
       <c r="G58">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H58">
         <v>2.3</v>
       </c>
       <c r="I58">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="K58">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L58">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M58">
         <v>1.33</v>
@@ -8642,16 +8642,16 @@
         <v>4</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T58">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U58">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W58">
         <v>1.09</v>
@@ -8663,10 +8663,10 @@
         <v>2.5</v>
       </c>
       <c r="Z58">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AB58">
         <v>1.67</v>
@@ -8699,7 +8699,7 @@
         <v>2.93</v>
       </c>
       <c r="AL58">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AM58">
         <v>2.22</v>
@@ -8746,13 +8746,13 @@
         <v>2.5</v>
       </c>
       <c r="J59">
-        <v>3.22</v>
+        <v>3.8</v>
       </c>
       <c r="K59">
-        <v>3.38</v>
+        <v>3.9</v>
       </c>
       <c r="L59">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="M59">
         <v>1.3</v>
@@ -8773,10 +8773,10 @@
         <v>4.5</v>
       </c>
       <c r="S59">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="U59">
         <v>1.57</v>
@@ -8794,10 +8794,10 @@
         <v>1.29</v>
       </c>
       <c r="Z59">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AA59">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AB59">
         <v>1.52</v>
@@ -8877,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K60">
-        <v>6.95</v>
+        <v>8.6</v>
       </c>
       <c r="L60">
-        <v>11.08</v>
+        <v>17</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -8925,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AA60">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AB60">
         <v>1.99</v>
@@ -8999,7 +8999,7 @@
         <v>224</v>
       </c>
       <c r="G61">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H61">
         <v>2.2</v>
@@ -9008,13 +9008,13 @@
         <v>4.5</v>
       </c>
       <c r="J61">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K61">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L61">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M61">
         <v>1.36</v>
@@ -9035,16 +9035,16 @@
         <v>3.42</v>
       </c>
       <c r="S61">
+        <v>1.88</v>
+      </c>
+      <c r="T61">
+        <v>1.89</v>
+      </c>
+      <c r="U61">
         <v>1.8</v>
       </c>
-      <c r="T61">
-        <v>2</v>
-      </c>
-      <c r="U61">
-        <v>1.73</v>
-      </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W61">
         <v>1.17</v>
@@ -9056,10 +9056,10 @@
         <v>1.98</v>
       </c>
       <c r="Z61">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AA61">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB61">
         <v>1.45</v>
@@ -9092,7 +9092,7 @@
         <v>2.93</v>
       </c>
       <c r="AL61">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AM61">
         <v>2.18</v>
@@ -9130,22 +9130,22 @@
         <v>225</v>
       </c>
       <c r="G62">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H62">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I62">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J62">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="K62">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M62">
         <v>1.33</v>
@@ -9169,7 +9169,7 @@
         <v>1.7</v>
       </c>
       <c r="T62">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U62">
         <v>1.73</v>
@@ -9187,10 +9187,10 @@
         <v>1.17</v>
       </c>
       <c r="Z62">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AA62">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AB62">
         <v>1.49</v>
@@ -9202,19 +9202,19 @@
         <v>3.11</v>
       </c>
       <c r="AE62">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AF62">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AG62">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ62">
         <v>1.34</v>
@@ -9223,7 +9223,7 @@
         <v>2.88</v>
       </c>
       <c r="AL62">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="AM62">
         <v>2.14</v>
@@ -9270,13 +9270,13 @@
         <v>5.5</v>
       </c>
       <c r="J63">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="K63">
         <v>3.7</v>
       </c>
       <c r="L63">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="M63">
         <v>1.36</v>
@@ -9297,10 +9297,10 @@
         <v>3.55</v>
       </c>
       <c r="S63">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U63">
         <v>1.91</v>
@@ -9318,10 +9318,10 @@
         <v>2.2</v>
       </c>
       <c r="Z63">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AA63">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AB63">
         <v>1.4</v>
@@ -9401,13 +9401,13 @@
         <v>2.8</v>
       </c>
       <c r="J64">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="K64">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="L64">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="M64">
         <v>1.46</v>
@@ -9428,10 +9428,10 @@
         <v>3</v>
       </c>
       <c r="S64">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T64">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U64">
         <v>1.83</v>
@@ -9449,10 +9449,10 @@
         <v>1.25</v>
       </c>
       <c r="Z64">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA64">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AB64">
         <v>1.64</v>
@@ -9523,115 +9523,115 @@
         <v>228</v>
       </c>
       <c r="G65">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="H65">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I65">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="J65">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="K65">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L65">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="M65">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N65">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O65">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q65">
         <v>1.22</v>
       </c>
       <c r="R65">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S65">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T65">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="U65">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V65">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W65">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="X65">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y65">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z65">
-        <v>1.27</v>
+        <v>1.81</v>
       </c>
       <c r="AA65">
-        <v>0.38</v>
+        <v>1.73</v>
       </c>
       <c r="AB65">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AC65">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AD65">
-        <v>2.97</v>
+        <v>3.38</v>
       </c>
       <c r="AE65">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="AF65">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AG65">
-        <v>4.06</v>
+        <v>2.08</v>
       </c>
       <c r="AH65">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AI65">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AJ65">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AK65">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AL65">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AM65">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AN65">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AO65">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AP65">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AQ65">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -9654,115 +9654,115 @@
         <v>229</v>
       </c>
       <c r="G66">
+        <v>3.6</v>
+      </c>
+      <c r="H66">
+        <v>2.25</v>
+      </c>
+      <c r="I66">
+        <v>2.5</v>
+      </c>
+      <c r="J66">
+        <v>3.2</v>
+      </c>
+      <c r="K66">
+        <v>3.65</v>
+      </c>
+      <c r="L66">
+        <v>2.05</v>
+      </c>
+      <c r="M66">
+        <v>1.28</v>
+      </c>
+      <c r="N66">
         <v>3.3</v>
       </c>
-      <c r="H66">
-        <v>2.2</v>
-      </c>
-      <c r="I66">
-        <v>3.1</v>
-      </c>
-      <c r="J66">
+      <c r="O66">
+        <v>1.02</v>
+      </c>
+      <c r="P66">
+        <v>19</v>
+      </c>
+      <c r="Q66">
+        <v>1.18</v>
+      </c>
+      <c r="R66">
+        <v>4.75</v>
+      </c>
+      <c r="S66">
+        <v>1.55</v>
+      </c>
+      <c r="T66">
+        <v>2.4</v>
+      </c>
+      <c r="U66">
+        <v>1.45</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>1.73</v>
+      </c>
+      <c r="X66">
+        <v>1.22</v>
+      </c>
+      <c r="Y66">
+        <v>1.33</v>
+      </c>
+      <c r="Z66">
+        <v>0.82</v>
+      </c>
+      <c r="AA66">
+        <v>1.5</v>
+      </c>
+      <c r="AB66">
+        <v>1.28</v>
+      </c>
+      <c r="AC66">
+        <v>1.47</v>
+      </c>
+      <c r="AD66">
         <v>2.75</v>
       </c>
-      <c r="K66">
-        <v>3.5</v>
-      </c>
-      <c r="L66">
-        <v>2.45</v>
-      </c>
-      <c r="M66">
-        <v>1.33</v>
-      </c>
-      <c r="N66">
-        <v>3.1</v>
-      </c>
-      <c r="O66">
-        <v>1.03</v>
-      </c>
-      <c r="P66">
-        <v>13</v>
-      </c>
-      <c r="Q66">
-        <v>1.22</v>
-      </c>
-      <c r="R66">
-        <v>4</v>
-      </c>
-      <c r="S66">
-        <v>1.75</v>
-      </c>
-      <c r="T66">
+      <c r="AE66">
+        <v>2.1</v>
+      </c>
+      <c r="AF66">
+        <v>7.4</v>
+      </c>
+      <c r="AG66">
         <v>2.05</v>
       </c>
-      <c r="U66">
-        <v>1.6</v>
-      </c>
-      <c r="V66">
-        <v>2.25</v>
-      </c>
-      <c r="W66">
-        <v>1.55</v>
-      </c>
-      <c r="X66">
-        <v>1.25</v>
-      </c>
-      <c r="Y66">
-        <v>1.45</v>
-      </c>
-      <c r="Z66">
-        <v>1.93</v>
-      </c>
-      <c r="AA66">
-        <v>1.64</v>
-      </c>
-      <c r="AB66">
-        <v>1.7</v>
-      </c>
-      <c r="AC66">
-        <v>1.68</v>
-      </c>
-      <c r="AD66">
-        <v>3.38</v>
-      </c>
-      <c r="AE66">
-        <v>2.08</v>
-      </c>
-      <c r="AF66">
-        <v>7.3</v>
-      </c>
-      <c r="AG66">
-        <v>2.08</v>
-      </c>
       <c r="AH66">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AI66">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AJ66">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AK66">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="AL66">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AM66">
-        <v>2.11</v>
+        <v>2.24</v>
       </c>
       <c r="AN66">
-        <v>2.14</v>
+        <v>2.01</v>
       </c>
       <c r="AO66">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AP66">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AQ66">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -9785,115 +9785,115 @@
         <v>230</v>
       </c>
       <c r="G67">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H67">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I67">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J67">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K67">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L67">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="M67">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P67">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q67">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R67">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="S67">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="T67">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U67">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="V67">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W67">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="X67">
         <v>1.22</v>
       </c>
       <c r="Y67">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="Z67">
-        <v>0.88</v>
+        <v>1.71</v>
       </c>
       <c r="AA67">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AB67">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="AC67">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AD67">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="AE67">
-        <v>2.1</v>
+        <v>2.86</v>
       </c>
       <c r="AF67">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="AG67">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AH67">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AI67">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AJ67">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AK67">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="AL67">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AM67">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="AN67">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="AO67">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="AQ67">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -9916,115 +9916,115 @@
         <v>231</v>
       </c>
       <c r="G68">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="H68">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="I68">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
       <c r="J68">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="K68">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="L68">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="N68">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="O68">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P68">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q68">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R68">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="S68">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="T68">
+        <v>2.65</v>
+      </c>
+      <c r="U68">
+        <v>1.53</v>
+      </c>
+      <c r="V68">
+        <v>2.45</v>
+      </c>
+      <c r="W68">
+        <v>1.17</v>
+      </c>
+      <c r="X68">
+        <v>1.16</v>
+      </c>
+      <c r="Y68">
         <v>2.4</v>
       </c>
-      <c r="U68">
-        <v>1.42</v>
-      </c>
-      <c r="V68">
-        <v>2.6</v>
-      </c>
-      <c r="W68">
-        <v>1.5</v>
-      </c>
-      <c r="X68">
-        <v>1.25</v>
-      </c>
-      <c r="Y68">
-        <v>1.48</v>
-      </c>
       <c r="Z68">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="AA68">
-        <v>1.33</v>
+        <v>0.65</v>
       </c>
       <c r="AB68">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AC68">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AD68">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="AE68">
-        <v>2.27</v>
+        <v>1.41</v>
       </c>
       <c r="AF68">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG68">
-        <v>1.9</v>
+        <v>3.86</v>
       </c>
       <c r="AH68">
         <v>1.17</v>
       </c>
       <c r="AI68">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AJ68">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AK68">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AL68">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AM68">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AN68">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="AO68">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AP68">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="AQ68">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:43">
@@ -10047,28 +10047,28 @@
         <v>232</v>
       </c>
       <c r="G69">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="H69">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I69">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="J69">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="K69">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L69">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="M69">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O69">
         <v>1.04</v>
@@ -10080,13 +10080,13 @@
         <v>1.22</v>
       </c>
       <c r="R69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S69">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T69">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U69">
         <v>1.62</v>
@@ -10095,43 +10095,43 @@
         <v>2.1</v>
       </c>
       <c r="W69">
-        <v>1.95</v>
+        <v>1.17</v>
       </c>
       <c r="X69">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y69">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z69">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="AA69">
-        <v>1.87</v>
+        <v>0.35</v>
       </c>
       <c r="AB69">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AC69">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AD69">
-        <v>3.02</v>
+        <v>2.97</v>
       </c>
       <c r="AE69">
-        <v>2.86</v>
+        <v>1.39</v>
       </c>
       <c r="AF69">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AG69">
-        <v>1.62</v>
+        <v>4.06</v>
       </c>
       <c r="AH69">
         <v>1.23</v>
       </c>
       <c r="AI69">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AJ69">
         <v>1.39</v>
@@ -10140,13 +10140,13 @@
         <v>2.77</v>
       </c>
       <c r="AL69">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="AM69">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="AN69">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="AO69">
         <v>1.66</v>
@@ -10178,115 +10178,115 @@
         <v>233</v>
       </c>
       <c r="G70">
-        <v>2.2</v>
+        <v>2.95</v>
       </c>
       <c r="H70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I70">
+        <v>2.95</v>
+      </c>
+      <c r="J70">
+        <v>2.6</v>
+      </c>
+      <c r="K70">
+        <v>3.45</v>
+      </c>
+      <c r="L70">
+        <v>2.55</v>
+      </c>
+      <c r="M70">
+        <v>1.28</v>
+      </c>
+      <c r="N70">
+        <v>3.35</v>
+      </c>
+      <c r="O70">
+        <v>1.02</v>
+      </c>
+      <c r="P70">
+        <v>18</v>
+      </c>
+      <c r="Q70">
+        <v>1.18</v>
+      </c>
+      <c r="R70">
+        <v>4.75</v>
+      </c>
+      <c r="S70">
+        <v>1.55</v>
+      </c>
+      <c r="T70">
+        <v>2.4</v>
+      </c>
+      <c r="U70">
+        <v>1.42</v>
+      </c>
+      <c r="V70">
+        <v>2.6</v>
+      </c>
+      <c r="W70">
+        <v>1.5</v>
+      </c>
+      <c r="X70">
+        <v>1.25</v>
+      </c>
+      <c r="Y70">
+        <v>1.48</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>1.44</v>
+      </c>
+      <c r="AB70">
+        <v>1.5</v>
+      </c>
+      <c r="AC70">
+        <v>1.64</v>
+      </c>
+      <c r="AD70">
+        <v>3.14</v>
+      </c>
+      <c r="AE70">
+        <v>2.27</v>
+      </c>
+      <c r="AF70">
+        <v>7.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.9</v>
+      </c>
+      <c r="AH70">
+        <v>1.17</v>
+      </c>
+      <c r="AI70">
         <v>4.5</v>
       </c>
-      <c r="J70">
-        <v>1.7</v>
-      </c>
-      <c r="K70">
-        <v>4.2</v>
-      </c>
-      <c r="L70">
-        <v>4.33</v>
-      </c>
-      <c r="M70">
-        <v>1.24</v>
-      </c>
-      <c r="N70">
-        <v>3.7</v>
-      </c>
-      <c r="O70">
-        <v>1.01</v>
-      </c>
-      <c r="P70">
-        <v>11</v>
-      </c>
-      <c r="Q70">
-        <v>1.14</v>
-      </c>
-      <c r="R70">
-        <v>5.5</v>
-      </c>
-      <c r="S70">
-        <v>1.47</v>
-      </c>
-      <c r="T70">
-        <v>2.65</v>
-      </c>
-      <c r="U70">
-        <v>1.5</v>
-      </c>
-      <c r="V70">
-        <v>2.45</v>
-      </c>
-      <c r="W70">
-        <v>1.2</v>
-      </c>
-      <c r="X70">
-        <v>1.18</v>
-      </c>
-      <c r="Y70">
-        <v>2.15</v>
-      </c>
-      <c r="Z70">
-        <v>1.8</v>
-      </c>
-      <c r="AA70">
-        <v>0.93</v>
-      </c>
-      <c r="AB70">
-        <v>1.76</v>
-      </c>
-      <c r="AC70">
-        <v>1.35</v>
-      </c>
-      <c r="AD70">
-        <v>3.11</v>
-      </c>
-      <c r="AE70">
-        <v>1.51</v>
-      </c>
-      <c r="AF70">
-        <v>7.7</v>
-      </c>
-      <c r="AG70">
-        <v>3.35</v>
-      </c>
-      <c r="AH70">
-        <v>1.21</v>
-      </c>
-      <c r="AI70">
-        <v>3.9</v>
-      </c>
       <c r="AJ70">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AK70">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AL70">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AM70">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="AN70">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="AO70">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AP70">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="AQ70">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="71" spans="1:43">
@@ -10309,115 +10309,115 @@
         <v>234</v>
       </c>
       <c r="G71">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H71">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="I71">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J71">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="K71">
+        <v>3.95</v>
+      </c>
+      <c r="L71">
         <v>5</v>
       </c>
-      <c r="L71">
-        <v>6.5</v>
-      </c>
       <c r="M71">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="N71">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O71">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P71">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q71">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="R71">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="S71">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="T71">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="U71">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V71">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="W71">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="X71">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="Y71">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z71">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AA71">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="AB71">
+        <v>1.63</v>
+      </c>
+      <c r="AC71">
+        <v>1.21</v>
+      </c>
+      <c r="AD71">
+        <v>2.84</v>
+      </c>
+      <c r="AE71">
+        <v>1.51</v>
+      </c>
+      <c r="AF71">
+        <v>7.7</v>
+      </c>
+      <c r="AG71">
+        <v>3.35</v>
+      </c>
+      <c r="AH71">
+        <v>1.21</v>
+      </c>
+      <c r="AI71">
+        <v>3.9</v>
+      </c>
+      <c r="AJ71">
+        <v>1.34</v>
+      </c>
+      <c r="AK71">
+        <v>3</v>
+      </c>
+      <c r="AL71">
+        <v>1.68</v>
+      </c>
+      <c r="AM71">
+        <v>2.16</v>
+      </c>
+      <c r="AN71">
+        <v>2.11</v>
+      </c>
+      <c r="AO71">
         <v>1.71</v>
       </c>
-      <c r="AC71">
-        <v>1.27</v>
-      </c>
-      <c r="AD71">
-        <v>2.98</v>
-      </c>
-      <c r="AE71">
-        <v>1.21</v>
-      </c>
-      <c r="AF71">
-        <v>10.5</v>
-      </c>
-      <c r="AG71">
-        <v>5.96</v>
-      </c>
-      <c r="AH71">
-        <v>1.23</v>
-      </c>
-      <c r="AI71">
-        <v>3.8</v>
-      </c>
-      <c r="AJ71">
-        <v>1.37</v>
-      </c>
-      <c r="AK71">
-        <v>2.85</v>
-      </c>
-      <c r="AL71">
-        <v>1.74</v>
-      </c>
-      <c r="AM71">
-        <v>2.07</v>
-      </c>
-      <c r="AN71">
-        <v>2.2</v>
-      </c>
-      <c r="AO71">
-        <v>1.66</v>
-      </c>
       <c r="AP71">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="AQ71">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="72" spans="1:43">
@@ -10440,76 +10440,76 @@
         <v>235</v>
       </c>
       <c r="G72">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H72">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I72">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J72">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="K72">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M72">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="N72">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="O72">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q72">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="R72">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="S72">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="T72">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="U72">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V72">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="W72">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X72">
         <v>1.18</v>
       </c>
       <c r="Y72">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Z72">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AA72">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AB72">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AC72">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AD72">
-        <v>2.84</v>
+        <v>3.11</v>
       </c>
       <c r="AE72">
         <v>1.51</v>
@@ -10527,10 +10527,10 @@
         <v>3.9</v>
       </c>
       <c r="AJ72">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AK72">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AL72">
         <v>1.68</v>
@@ -10539,16 +10539,16 @@
         <v>2.16</v>
       </c>
       <c r="AN72">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AO72">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AP72">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AQ72">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="73" spans="1:43">
@@ -10571,115 +10571,115 @@
         <v>236</v>
       </c>
       <c r="G73">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H73">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="I73">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J73">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="K73">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M73">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="N73">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O73">
         <v>1.01</v>
       </c>
       <c r="P73">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q73">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="R73">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="S73">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="T73">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="U73">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V73">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="W73">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="X73">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="Y73">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="Z73">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AA73">
-        <v>0.6899999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="AB73">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AC73">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AD73">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="AE73">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AF73">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG73">
-        <v>3.86</v>
+        <v>5.96</v>
       </c>
       <c r="AH73">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AI73">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="AJ73">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AK73">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AL73">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AM73">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="AN73">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AO73">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="AP73">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="74" spans="1:43">
@@ -10711,13 +10711,13 @@
         <v>3.25</v>
       </c>
       <c r="J74">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="K74">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L74">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="M74">
         <v>1.38</v>
@@ -10738,10 +10738,10 @@
         <v>3.5</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T74">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U74">
         <v>1.7</v>
@@ -10759,10 +10759,10 @@
         <v>1.47</v>
       </c>
       <c r="Z74">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AA74">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB74">
         <v>1.52</v>
@@ -10845,10 +10845,10 @@
         <v>2.8</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L75">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="M75">
         <v>1.35</v>
@@ -10869,16 +10869,16 @@
         <v>3.65</v>
       </c>
       <c r="S75">
+        <v>1.81</v>
+      </c>
+      <c r="T75">
+        <v>1.94</v>
+      </c>
+      <c r="U75">
+        <v>1.73</v>
+      </c>
+      <c r="V75">
         <v>2</v>
-      </c>
-      <c r="T75">
-        <v>1.8</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>1.91</v>
       </c>
       <c r="W75">
         <v>1.54</v>
@@ -10890,10 +10890,10 @@
         <v>1.39</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB75">
         <v>1.51</v>
@@ -10914,10 +10914,10 @@
         <v>1.77</v>
       </c>
       <c r="AH75">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI75">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ75">
         <v>1.26</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="76" spans="1:43">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B76" s="2">
         <v>45380</v>
@@ -10955,7 +10955,7 @@
         <v>80</v>
       </c>
       <c r="D76">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
         <v>158</v>
@@ -10964,120 +10964,120 @@
         <v>239</v>
       </c>
       <c r="G76">
+        <v>2.63</v>
+      </c>
+      <c r="H76">
+        <v>2.2</v>
+      </c>
+      <c r="I76">
+        <v>3.6</v>
+      </c>
+      <c r="J76">
+        <v>2.1</v>
+      </c>
+      <c r="K76">
+        <v>3.6</v>
+      </c>
+      <c r="L76">
+        <v>3.3</v>
+      </c>
+      <c r="M76">
+        <v>1.4</v>
+      </c>
+      <c r="N76">
+        <v>2.75</v>
+      </c>
+      <c r="O76">
+        <v>1.03</v>
+      </c>
+      <c r="P76">
+        <v>9</v>
+      </c>
+      <c r="Q76">
+        <v>1.28</v>
+      </c>
+      <c r="R76">
+        <v>3.5</v>
+      </c>
+      <c r="S76">
+        <v>1.85</v>
+      </c>
+      <c r="T76">
+        <v>1.95</v>
+      </c>
+      <c r="U76">
+        <v>1.73</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>1.35</v>
+      </c>
+      <c r="X76">
+        <v>1.22</v>
+      </c>
+      <c r="Y76">
+        <v>1.68</v>
+      </c>
+      <c r="Z76">
+        <v>2.09</v>
+      </c>
+      <c r="AA76">
+        <v>2.55</v>
+      </c>
+      <c r="AB76">
+        <v>1.79</v>
+      </c>
+      <c r="AC76">
+        <v>1.58</v>
+      </c>
+      <c r="AD76">
+        <v>3.37</v>
+      </c>
+      <c r="AE76">
+        <v>1.64</v>
+      </c>
+      <c r="AF76">
+        <v>8.6</v>
+      </c>
+      <c r="AG76">
+        <v>2.64</v>
+      </c>
+      <c r="AH76">
+        <v>1.28</v>
+      </c>
+      <c r="AI76">
         <v>3.2</v>
       </c>
-      <c r="H76">
-        <v>1.91</v>
-      </c>
-      <c r="I76">
-        <v>3.55</v>
-      </c>
-      <c r="J76">
-        <v>2.42</v>
-      </c>
-      <c r="K76">
-        <v>2.84</v>
-      </c>
-      <c r="L76">
-        <v>2.59</v>
-      </c>
-      <c r="M76">
-        <v>1.53</v>
-      </c>
-      <c r="N76">
-        <v>2.38</v>
-      </c>
-      <c r="O76">
-        <v>1.09</v>
-      </c>
-      <c r="P76">
-        <v>7</v>
-      </c>
-      <c r="Q76">
-        <v>1.45</v>
-      </c>
-      <c r="R76">
-        <v>2.7</v>
-      </c>
-      <c r="S76">
-        <v>2.41</v>
-      </c>
-      <c r="T76">
-        <v>1.5</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.73</v>
-      </c>
-      <c r="W76">
-        <v>1.4</v>
-      </c>
-      <c r="X76">
-        <v>1.3</v>
-      </c>
-      <c r="Y76">
-        <v>1.5</v>
-      </c>
-      <c r="Z76">
-        <v>2.38</v>
-      </c>
-      <c r="AA76">
-        <v>1.25</v>
-      </c>
-      <c r="AB76">
-        <v>1.43</v>
-      </c>
-      <c r="AC76">
-        <v>1.1</v>
-      </c>
-      <c r="AD76">
-        <v>2.53</v>
-      </c>
-      <c r="AE76">
-        <v>1.91</v>
-      </c>
-      <c r="AF76">
-        <v>8</v>
-      </c>
-      <c r="AG76">
-        <v>2.1</v>
-      </c>
-      <c r="AH76">
-        <v>1.3</v>
-      </c>
-      <c r="AI76">
-        <v>3.05</v>
-      </c>
       <c r="AJ76">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AK76">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="AL76">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="AM76">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="AN76">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AO76">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AP76">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="AQ76">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="77" spans="1:43">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B77" s="2">
         <v>45380</v>
@@ -11086,7 +11086,7 @@
         <v>80</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
         <v>159</v>
@@ -11095,115 +11095,115 @@
         <v>240</v>
       </c>
       <c r="G77">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H77">
+        <v>1.91</v>
+      </c>
+      <c r="I77">
+        <v>3.55</v>
+      </c>
+      <c r="J77">
+        <v>2.6</v>
+      </c>
+      <c r="K77">
+        <v>3.05</v>
+      </c>
+      <c r="L77">
+        <v>2.95</v>
+      </c>
+      <c r="M77">
+        <v>1.53</v>
+      </c>
+      <c r="N77">
+        <v>2.38</v>
+      </c>
+      <c r="O77">
+        <v>1.09</v>
+      </c>
+      <c r="P77">
+        <v>7</v>
+      </c>
+      <c r="Q77">
+        <v>1.45</v>
+      </c>
+      <c r="R77">
+        <v>2.7</v>
+      </c>
+      <c r="S77">
+        <v>2.37</v>
+      </c>
+      <c r="T77">
+        <v>1.48</v>
+      </c>
+      <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
+        <v>1.73</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>1.3</v>
+      </c>
+      <c r="Y77">
+        <v>1.5</v>
+      </c>
+      <c r="Z77">
+        <v>2.29</v>
+      </c>
+      <c r="AA77">
+        <v>1.24</v>
+      </c>
+      <c r="AB77">
+        <v>1.43</v>
+      </c>
+      <c r="AC77">
+        <v>1.1</v>
+      </c>
+      <c r="AD77">
+        <v>2.53</v>
+      </c>
+      <c r="AE77">
+        <v>1.91</v>
+      </c>
+      <c r="AF77">
+        <v>8</v>
+      </c>
+      <c r="AG77">
+        <v>2.1</v>
+      </c>
+      <c r="AH77">
+        <v>1.3</v>
+      </c>
+      <c r="AI77">
+        <v>3.05</v>
+      </c>
+      <c r="AJ77">
+        <v>1.56</v>
+      </c>
+      <c r="AK77">
         <v>2.2</v>
       </c>
-      <c r="I77">
-        <v>3.6</v>
-      </c>
-      <c r="J77">
-        <v>2.15</v>
-      </c>
-      <c r="K77">
-        <v>3.6</v>
-      </c>
-      <c r="L77">
-        <v>3.2</v>
-      </c>
-      <c r="M77">
-        <v>1.4</v>
-      </c>
-      <c r="N77">
-        <v>2.75</v>
-      </c>
-      <c r="O77">
-        <v>1.03</v>
-      </c>
-      <c r="P77">
-        <v>9</v>
-      </c>
-      <c r="Q77">
-        <v>1.28</v>
-      </c>
-      <c r="R77">
+      <c r="AL77">
+        <v>1.85</v>
+      </c>
+      <c r="AM77">
+        <v>1.95</v>
+      </c>
+      <c r="AN77">
+        <v>2.55</v>
+      </c>
+      <c r="AO77">
+        <v>1.42</v>
+      </c>
+      <c r="AP77">
         <v>3.5</v>
       </c>
-      <c r="S77">
-        <v>1.85</v>
-      </c>
-      <c r="T77">
-        <v>1.95</v>
-      </c>
-      <c r="U77">
-        <v>1.73</v>
-      </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
-      <c r="W77">
-        <v>1.35</v>
-      </c>
-      <c r="X77">
-        <v>1.22</v>
-      </c>
-      <c r="Y77">
-        <v>1.68</v>
-      </c>
-      <c r="Z77">
-        <v>2.3</v>
-      </c>
-      <c r="AA77">
-        <v>2.5</v>
-      </c>
-      <c r="AB77">
-        <v>1.79</v>
-      </c>
-      <c r="AC77">
-        <v>1.58</v>
-      </c>
-      <c r="AD77">
-        <v>3.37</v>
-      </c>
-      <c r="AE77">
-        <v>1.65</v>
-      </c>
-      <c r="AF77">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG77">
-        <v>2.59</v>
-      </c>
-      <c r="AH77">
-        <v>1.28</v>
-      </c>
-      <c r="AI77">
-        <v>3.2</v>
-      </c>
-      <c r="AJ77">
-        <v>1.57</v>
-      </c>
-      <c r="AK77">
-        <v>2.34</v>
-      </c>
-      <c r="AL77">
-        <v>1.96</v>
-      </c>
-      <c r="AM77">
-        <v>1.84</v>
-      </c>
-      <c r="AN77">
-        <v>2.5</v>
-      </c>
-      <c r="AO77">
-        <v>1.51</v>
-      </c>
-      <c r="AP77">
-        <v>3.34</v>
-      </c>
       <c r="AQ77">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="78" spans="1:43">
@@ -11235,13 +11235,13 @@
         <v>4.75</v>
       </c>
       <c r="J78">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="K78">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="L78">
-        <v>4.47</v>
+        <v>4.7</v>
       </c>
       <c r="M78">
         <v>1.29</v>
@@ -11262,10 +11262,10 @@
         <v>4.33</v>
       </c>
       <c r="S78">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T78">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="U78">
         <v>1.66</v>
@@ -11283,10 +11283,10 @@
         <v>2.2</v>
       </c>
       <c r="Z78">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AA78">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB78">
         <v>1.88</v>
@@ -11366,13 +11366,13 @@
         <v>4.33</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="K79">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="L79">
-        <v>3.48</v>
+        <v>3.85</v>
       </c>
       <c r="M79">
         <v>1.5</v>
@@ -11393,10 +11393,10 @@
         <v>2.9</v>
       </c>
       <c r="S79">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="T79">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U79">
         <v>1.95</v>
@@ -11414,10 +11414,10 @@
         <v>1.73</v>
       </c>
       <c r="Z79">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AA79">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AB79">
         <v>1.27</v>
@@ -11497,13 +11497,13 @@
         <v>4</v>
       </c>
       <c r="J80">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="K80">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
         <v>1.4</v>
@@ -11527,7 +11527,7 @@
         <v>2</v>
       </c>
       <c r="T80">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="U80">
         <v>1.8</v>
@@ -11545,10 +11545,10 @@
         <v>1.72</v>
       </c>
       <c r="Z80">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AA80">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AB80">
         <v>1.71</v>
@@ -11628,13 +11628,13 @@
         <v>2.1</v>
       </c>
       <c r="J81">
-        <v>4.99</v>
+        <v>5.4</v>
       </c>
       <c r="K81">
-        <v>3.89</v>
+        <v>4.1</v>
       </c>
       <c r="L81">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="M81">
         <v>1.33</v>
@@ -11655,10 +11655,10 @@
         <v>4.33</v>
       </c>
       <c r="S81">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="T81">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U81">
         <v>1.73</v>
@@ -11676,10 +11676,10 @@
         <v>1.16</v>
       </c>
       <c r="Z81">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AA81">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AB81">
         <v>1.64</v>
@@ -11759,13 +11759,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="K82">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="L82">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -11786,10 +11786,10 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T82">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="U82">
         <v>0</v>
@@ -11807,10 +11807,10 @@
         <v>0</v>
       </c>
       <c r="Z82">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AA82">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AB82">
         <v>1.06</v>
